--- a/R_output_files/Tables/Significant_Genes_Cluster_Annotation.xlsx
+++ b/R_output_files/Tables/Significant_Genes_Cluster_Annotation.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -389,15 +389,15 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.6136940551485045</v>
+        <v>-0.6136940551485014</v>
       </c>
       <c r="D2">
-        <v>2.13386396412745e-07</v>
+        <v>2.133863963787013e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -405,15 +405,15 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.4114188685873616</v>
+        <v>-0.4114188685873477</v>
       </c>
       <c r="D3">
-        <v>0.04316546773061721</v>
+        <v>0.04316546773182005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -421,15 +421,15 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.3068420233685946</v>
+        <v>-0.3068420233685892</v>
       </c>
       <c r="D4">
-        <v>0.03474960898520096</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -437,31 +437,28 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.4520760132200052</v>
+        <v>-0.4520760132200045</v>
       </c>
       <c r="D5">
-        <v>0.02514286284877377</v>
+        <v>0.02514286284711538</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>3</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Ndufb4</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.4271431255388159</v>
+        <v>-0.4271431255388099</v>
       </c>
       <c r="D6">
-        <v>0.00232915382829124</v>
+        <v>0.00232915382812913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -469,15 +466,15 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.4002077741105518</v>
+        <v>-0.4002077741105515</v>
       </c>
       <c r="D7">
-        <v>0.008779509299463259</v>
+        <v>0.008779509299285121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -485,15 +482,15 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.3225514272635629</v>
+        <v>-0.3225514272635607</v>
       </c>
       <c r="D8">
-        <v>0.04156990062851939</v>
+        <v>0.04156990062621944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -501,15 +498,15 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.5141287239919136</v>
+        <v>-0.5141287239919096</v>
       </c>
       <c r="D9">
-        <v>4.690907004598019e-05</v>
+        <v>4.690907003388417e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -517,15 +514,15 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.2896488641274119</v>
+        <v>-0.2896488641274081</v>
       </c>
       <c r="D10">
-        <v>0.009644933646618141</v>
+        <v>0.00964493364492745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -533,15 +530,15 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.4034218477138531</v>
+        <v>-0.4034218477138557</v>
       </c>
       <c r="D11">
-        <v>0.0305058511316976</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -549,28 +546,31 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.3575787855659218</v>
+        <v>-0.357578785565913</v>
       </c>
       <c r="D12">
-        <v>0.01253791012866319</v>
+        <v>0.01253791012803849</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Gm3244</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.6110971568144096</v>
+        <v>-0.6110971568144076</v>
       </c>
       <c r="D13">
-        <v>0.00562583898236186</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -578,15 +578,15 @@
         </is>
       </c>
       <c r="C14">
-        <v>2.102881237092276</v>
+        <v>2.102881237092282</v>
       </c>
       <c r="D14">
-        <v>0.00172643018556285</v>
+        <v>0.0017264301856411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -594,15 +594,15 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.4942358096775014</v>
+        <v>0.494235809677497</v>
       </c>
       <c r="D15">
-        <v>0.00940986749899699</v>
+        <v>0.00940986749948737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -610,15 +610,15 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.25844450581611</v>
+        <v>1.258444505816108</v>
       </c>
       <c r="D16">
-        <v>0.0023947516727618</v>
+        <v>0.00239475167287818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -626,15 +626,15 @@
         </is>
       </c>
       <c r="C17">
-        <v>-0.4513605322798434</v>
+        <v>-0.4513605322798427</v>
       </c>
       <c r="D17">
-        <v>0.04156990062851939</v>
+        <v>0.04156990062621944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -642,15 +642,15 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.46775101166588</v>
+        <v>1.467751011665882</v>
       </c>
       <c r="D18">
-        <v>0.0009145016978814392</v>
+        <v>0.0009145016975501976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -658,15 +658,15 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.695135492302047</v>
+        <v>1.695135492302067</v>
       </c>
       <c r="D19">
-        <v>0.01060929420368478</v>
+        <v>0.01060929420345149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -674,15 +674,15 @@
         </is>
       </c>
       <c r="C20">
-        <v>-0.4504025519597262</v>
+        <v>-0.4504025519597202</v>
       </c>
       <c r="D20">
-        <v>0.01506999081389644</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -690,15 +690,15 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.459191505035934</v>
+        <v>1.459191505035938</v>
       </c>
       <c r="D21">
-        <v>0.01506999081389644</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>1.636845627770697</v>
+        <v>1.636845627770704</v>
       </c>
       <c r="D22">
-        <v>0.00481110779112566</v>
+        <v>0.0048111077919458</v>
       </c>
     </row>
     <row r="23">
@@ -719,28 +719,31 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.743861683319534</v>
+        <v>1.743861683319563</v>
       </c>
       <c r="D23">
-        <v>0.0009196851532549836</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Pgam1</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.3203020860636872</v>
+        <v>-0.3203020860636794</v>
       </c>
       <c r="D24">
-        <v>0.0305058511316976</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -748,15 +751,15 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.264812338664068</v>
+        <v>-0.2648123386640706</v>
       </c>
       <c r="D25">
-        <v>0.02355970558724607</v>
+        <v>0.02355970558509391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -764,28 +767,31 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.3409992633256098</v>
+        <v>-0.3409992633256191</v>
       </c>
       <c r="D26">
-        <v>0.04492372637610642</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27">
+        <v>15</v>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Aamp</t>
         </is>
       </c>
       <c r="C27">
-        <v>-0.2786563266807706</v>
+        <v>-0.2786563266807697</v>
       </c>
       <c r="D27">
-        <v>0.04702885656926308</v>
+        <v>0.0470288565669572</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -793,10 +799,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>-0.4157445218833076</v>
+        <v>-0.4157445218833072</v>
       </c>
       <c r="D28">
-        <v>0.03926925956023063</v>
+        <v>0.0392692595590252</v>
       </c>
     </row>
     <row r="29">
@@ -809,10 +815,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.8946948549623315</v>
+        <v>0.8946948549623319</v>
       </c>
       <c r="D29">
-        <v>0.01506999081389644</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="30">
@@ -825,15 +831,15 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.567896224930952</v>
+        <v>1.567896224930968</v>
       </c>
       <c r="D30">
-        <v>0.01557323154892728</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -841,31 +847,28 @@
         </is>
       </c>
       <c r="C31">
-        <v>-0.3045465579884744</v>
+        <v>-0.3045465579884751</v>
       </c>
       <c r="D31">
-        <v>0.03277896192965388</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ddrgk1</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.2907483741436849</v>
+        <v>-0.2907483741436852</v>
       </c>
       <c r="D32">
-        <v>0.0195286484946758</v>
+        <v>0.01952864849493658</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -873,10 +876,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.6747870700246594</v>
+        <v>0.6747870700246724</v>
       </c>
       <c r="D33">
-        <v>0.0008689191171967279</v>
+        <v>0.0008689191171007392</v>
       </c>
     </row>
     <row r="34">
@@ -886,15 +889,15 @@
         </is>
       </c>
       <c r="C34">
-        <v>-0.3102011649719719</v>
+        <v>-0.3102011649719741</v>
       </c>
       <c r="D34">
-        <v>0.03277896192965388</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -902,15 +905,15 @@
         </is>
       </c>
       <c r="C35">
-        <v>-0.4055782818989194</v>
+        <v>-0.405578281898915</v>
       </c>
       <c r="D35">
-        <v>0.03782848334181468</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -918,15 +921,15 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.5355406741566102</v>
+        <v>0.5355406741566442</v>
       </c>
       <c r="D36">
-        <v>0.03900016812707151</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -934,15 +937,15 @@
         </is>
       </c>
       <c r="C37">
-        <v>-0.250677105639354</v>
+        <v>-0.2506771056393453</v>
       </c>
       <c r="D37">
-        <v>0.0305058511316976</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -950,10 +953,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.3717166871213363</v>
+        <v>0.3717166871213346</v>
       </c>
       <c r="D38">
-        <v>0.03567620661390576</v>
+        <v>0.03567620661067988</v>
       </c>
     </row>
     <row r="39">
@@ -963,10 +966,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>-0.3334593595642121</v>
+        <v>-0.3334593595642131</v>
       </c>
       <c r="D39">
-        <v>0.03095961807739343</v>
+        <v>0.03095961807620126</v>
       </c>
     </row>
     <row r="40">
@@ -976,10 +979,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.9612395587293076</v>
+        <v>0.96123955872926</v>
       </c>
       <c r="D40">
-        <v>0.03477815041019694</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="41">
@@ -992,10 +995,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.764370144184797</v>
+        <v>0.7643701441847944</v>
       </c>
       <c r="D41">
-        <v>0.04803781146799448</v>
+        <v>0.04803781147378225</v>
       </c>
     </row>
     <row r="42">
@@ -1004,259 +1007,271 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tap2</t>
+          <t>Tcf7l2</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.8173454170771214</v>
+        <v>0.3168662211265155</v>
       </c>
       <c r="D42">
-        <v>0.0331581219298428</v>
+        <v>0.04743949790724527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tcf7l2</t>
+          <t>Podxl</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.316866221126514</v>
+        <v>0.5766279577967081</v>
       </c>
       <c r="D43">
-        <v>0.04743949791216315</v>
+        <v>0.04580293991246836</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44">
+        <v>3</v>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Podxl</t>
+          <t>Eef1b2</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.5766279577967047</v>
+        <v>-0.3544116078903323</v>
       </c>
       <c r="D44">
-        <v>0.04580293991767476</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Eef1b2</t>
+          <t>Xrn2</t>
         </is>
       </c>
       <c r="C45">
-        <v>-0.3544116078903296</v>
+        <v>0.4186480873016118</v>
       </c>
       <c r="D45">
-        <v>0.0305058511316976</v>
+        <v>0.03531868810479954</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>10</v>
-      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Xrn2</t>
+          <t>Slc6a9</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.4186480873016133</v>
+        <v>0.4103229934610335</v>
       </c>
       <c r="D46">
-        <v>0.03531868810357744</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47">
+        <v>8</v>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Slc6a9</t>
+          <t>Kmt2e</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.4103229934610363</v>
+        <v>0.3154735300697111</v>
       </c>
       <c r="D47">
-        <v>0.03633971621978432</v>
+        <v>0.00253403748708825</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kmt2e</t>
+          <t>Fip1l1</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.3154735300697032</v>
+        <v>-0.2734748506297395</v>
       </c>
       <c r="D48">
-        <v>0.00253403748751116</v>
+        <v>0.00459294254044591</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49">
+        <v>11</v>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fip1l1</t>
+          <t>Srsf9</t>
         </is>
       </c>
       <c r="C49">
-        <v>-0.2734748506297343</v>
+        <v>-0.3422315622636333</v>
       </c>
       <c r="D49">
-        <v>0.00459294254098328</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50">
+        <v>18</v>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Srsf9</t>
+          <t>Erp29</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.342231562263627</v>
+        <v>-0.5185636075043087</v>
       </c>
       <c r="D50">
-        <v>0.04492372637610642</v>
+        <v>0.04381181348338659</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>15</v>
-      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Erp29</t>
+          <t>Frmd4b</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.5185636075043079</v>
+        <v>0.3736441300611051</v>
       </c>
       <c r="D51">
-        <v>0.0438118134854417</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frmd4b</t>
+          <t>Arl8b</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.3736441300611167</v>
+        <v>-0.2456727984052809</v>
       </c>
       <c r="D52">
-        <v>0.00936655097332152</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="53">
+      <c r="A53">
+        <v>3</v>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Arl8b</t>
+          <t>Pdcd5</t>
         </is>
       </c>
       <c r="C53">
-        <v>-0.245672798405272</v>
+        <v>-0.3122282208929471</v>
       </c>
       <c r="D53">
-        <v>0.03477815041019694</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pdcd5</t>
+          <t>Egln1</t>
         </is>
       </c>
       <c r="C54">
-        <v>-0.3122282208929509</v>
+        <v>-0.644887613788194</v>
       </c>
       <c r="D54">
-        <v>0.0305058511316976</v>
+        <v>0.00199135996115129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Egln1</t>
+          <t>Rbm5</t>
         </is>
       </c>
       <c r="C55">
-        <v>-0.6448876137881963</v>
+        <v>-0.3292746056845106</v>
       </c>
       <c r="D55">
-        <v>0.00199135996110686</v>
+        <v>0.00998114484854677</v>
       </c>
     </row>
     <row r="56">
+      <c r="A56">
+        <v>22</v>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rbm5</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="C56">
-        <v>-0.329274605684512</v>
+        <v>-4.566552261618236</v>
       </c>
       <c r="D56">
-        <v>0.009981144849153479</v>
+        <v>0.04632659953584023</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Abi3bp</t>
         </is>
       </c>
       <c r="C57">
-        <v>-4.566552261618233</v>
+        <v>0.6188485596545618</v>
       </c>
       <c r="D57">
-        <v>0.04632659953428916</v>
+        <v>0.04826118478868797</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58">
+        <v>1</v>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Abi3bp</t>
+          <t>Isg15</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.6188485596545492</v>
+        <v>3.858134757511314</v>
       </c>
       <c r="D58">
-        <v>0.04826118478683816</v>
+        <v>0.02577197745126051</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>1</v>
-      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Isg15</t>
+          <t>Pml</t>
         </is>
       </c>
       <c r="C59">
-        <v>3.858134757511312</v>
+        <v>0.7261306926495501</v>
       </c>
       <c r="D59">
-        <v>0.02577197744974713</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="60">
@@ -1265,476 +1280,473 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pml</t>
+          <t>Apbb1</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.7261306926495457</v>
+        <v>-1.335553206046667</v>
       </c>
       <c r="D60">
-        <v>0.02211292208551394</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apbb1</t>
+          <t>Ddx58</t>
         </is>
       </c>
       <c r="C61">
-        <v>-1.335553206046668</v>
+        <v>2.686566402194582</v>
       </c>
       <c r="D61">
-        <v>0.03474960898520096</v>
+        <v>0.00892715136478792</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ddx58</t>
+          <t>Snrnp25</t>
         </is>
       </c>
       <c r="C62">
-        <v>2.68656640219458</v>
+        <v>-0.6929074624878369</v>
       </c>
       <c r="D62">
-        <v>0.00892715136426364</v>
+        <v>0.02523106012812359</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>19</v>
-      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Snrnp25</t>
+          <t>Leo1</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.6929074624878326</v>
+        <v>-0.2835620892259628</v>
       </c>
       <c r="D63">
-        <v>0.02523106012644324</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="64">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Leo1</t>
+          <t>Irgm1</t>
         </is>
       </c>
       <c r="C64">
-        <v>-0.2835620892259496</v>
+        <v>3.226458451204619</v>
       </c>
       <c r="D64">
-        <v>0.04083801840135327</v>
+        <v>0.00964493364492745</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Irgm1</t>
+          <t>Chchd10</t>
         </is>
       </c>
       <c r="C65">
-        <v>3.22645845120462</v>
+        <v>-0.4182556786551846</v>
       </c>
       <c r="D65">
-        <v>0.009644933646618141</v>
+        <v>0.00676588040493993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rnf152</t>
+          <t>Fzd4</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.4654245597123343</v>
+        <v>0.4122753828831323</v>
       </c>
       <c r="D66">
-        <v>0.03782848334181468</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chchd10</t>
+          <t>Commd1</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.4182556786551791</v>
+        <v>-0.3404046329767973</v>
       </c>
       <c r="D67">
-        <v>0.00676588040611997</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fzd4</t>
+          <t>Zfp622</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.412275382883131</v>
+        <v>-0.4793103837750753</v>
       </c>
       <c r="D68">
-        <v>0.04492372637610642</v>
+        <v>0.02242589890025613</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Minos1</t>
+          <t>Tpt1</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.2882896912104863</v>
+        <v>-0.4365735859959968</v>
       </c>
       <c r="D69">
-        <v>0.01162913763317422</v>
+        <v>0.00244312273070854</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>9</v>
-      </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Commd1</t>
+          <t>Ei24</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.3404046329767826</v>
+        <v>-0.66004168836452</v>
       </c>
       <c r="D70">
-        <v>0.00470179753198625</v>
+        <v>0.0005449586332035287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Zfp622</t>
+          <t>Suds3</t>
         </is>
       </c>
       <c r="C71">
-        <v>-0.4793103837750768</v>
+        <v>-0.3775815064574756</v>
       </c>
       <c r="D71">
-        <v>0.02242589890201382</v>
+        <v>0.02331852868602164</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tpt1</t>
+          <t>Rplp0</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.4365735859959936</v>
+        <v>-0.3982893689825131</v>
       </c>
       <c r="D72">
-        <v>0.0024431227306653</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73">
+        <v>1</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ei24</t>
+          <t>Igtp</t>
         </is>
       </c>
       <c r="C73">
-        <v>-0.6600416883645186</v>
+        <v>3.273759088560355</v>
       </c>
       <c r="D73">
-        <v>0.000544958633238181</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aurkaip1</t>
+          <t>Fzd10</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.4687912218656146</v>
+        <v>-1.776297270601178</v>
       </c>
       <c r="D74">
-        <v>0.03633971621978432</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75">
+        <v>14</v>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Suds3</t>
+          <t>Ubl5</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.3775815064574771</v>
+        <v>-0.377251855112088</v>
       </c>
       <c r="D75">
-        <v>0.02331852868832319</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rplp0</t>
+          <t>Myl6</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.3982893689825125</v>
+        <v>-0.6309395807521748</v>
       </c>
       <c r="D76">
-        <v>0.02211292208551394</v>
+        <v>0.00244312273070854</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chchd2</t>
+          <t>Slfn4</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.4112802965966424</v>
+        <v>3.931006667577521</v>
       </c>
       <c r="D77">
-        <v>0.01408956698523881</v>
+        <v>0.02353655028589543</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>1</v>
-      </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Igtp</t>
+          <t>Mien1</t>
         </is>
       </c>
       <c r="C78">
-        <v>3.273759088560354</v>
+        <v>-0.410080110334377</v>
       </c>
       <c r="D78">
-        <v>0.00470179753198625</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
-        <v>4</v>
-      </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fzd10</t>
+          <t>Arrdc2</t>
         </is>
       </c>
       <c r="C79">
-        <v>-1.776297270601188</v>
+        <v>-0.9370872899338036</v>
       </c>
       <c r="D79">
-        <v>0.0305058511316976</v>
+        <v>0.00579852748875405</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ubl5</t>
+          <t>Rps11</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.3772518551120936</v>
+        <v>-0.423684419793032</v>
       </c>
       <c r="D80">
-        <v>0.01557323154892728</v>
+        <v>0.04401564446105166</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pet100</t>
+          <t>Ppp1cc</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.4881954958730174</v>
+        <v>-0.3359145435862895</v>
       </c>
       <c r="D81">
-        <v>0.00952561114836223</v>
+        <v>0.00429779987027545</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Myl6</t>
+          <t>Rps9</t>
         </is>
       </c>
       <c r="C82">
-        <v>-0.6309395807521745</v>
+        <v>-0.3778846426156845</v>
       </c>
       <c r="D82">
-        <v>0.0024431227306653</v>
+        <v>0.03488258414832022</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Slfn4</t>
+          <t>Rplp1</t>
         </is>
       </c>
       <c r="C83">
-        <v>3.93100666757752</v>
+        <v>-0.7100741567090141</v>
       </c>
       <c r="D83">
-        <v>0.02353655029410975</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84">
+        <v>2</v>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mien1</t>
+          <t>Atp5e</t>
         </is>
       </c>
       <c r="C84">
-        <v>-0.4100801103343778</v>
+        <v>-0.372562968980597</v>
       </c>
       <c r="D84">
-        <v>0.03633971621978432</v>
+        <v>0.04815621131608248</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85">
+        <v>3</v>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Arrdc2</t>
+          <t>Rpl19</t>
         </is>
       </c>
       <c r="C85">
-        <v>-0.9370872899338129</v>
+        <v>-0.4761544188765737</v>
       </c>
       <c r="D85">
-        <v>0.00579852748822372</v>
+        <v>0.0003654438157078666</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
-        <v>2</v>
-      </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rps11</t>
+          <t>Ypel2</t>
         </is>
       </c>
       <c r="C86">
-        <v>-0.4236844197930345</v>
+        <v>0.4790995488285016</v>
       </c>
       <c r="D86">
-        <v>0.04401564446407619</v>
+        <v>0.01902096648426887</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ppp1cc</t>
+          <t>Tmem160</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.3359145435862986</v>
+        <v>-0.7785598149513265</v>
       </c>
       <c r="D87">
-        <v>0.00429779987045688</v>
+        <v>0.009307550149273969</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
-        <v>2</v>
-      </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rps9</t>
+          <t>Ccdc59</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.3778846426156855</v>
+        <v>-0.3882599464528771</v>
       </c>
       <c r="D88">
-        <v>0.03488258415377721</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rplp1</t>
+          <t>Cmpk2</t>
         </is>
       </c>
       <c r="C89">
-        <v>-0.7100741567090137</v>
+        <v>5.169713885372579</v>
       </c>
       <c r="D89">
-        <v>0.0009196851532549836</v>
+        <v>0.0020092196556229</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Atp5e</t>
+          <t>Rsad2</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.3725629689806041</v>
+        <v>4.950718050006488</v>
       </c>
       <c r="D90">
-        <v>0.04815621131565105</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="91">
@@ -1743,358 +1755,367 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rpl19</t>
+          <t>2010107E04Rik</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.4761544188765726</v>
+        <v>-0.7277222812200324</v>
       </c>
       <c r="D91">
-        <v>0.0003654438157607383</v>
+        <v>1.894832369954323e-12</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92">
+        <v>3</v>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ypel2</t>
+          <t>Btf3</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.4790995488285074</v>
+        <v>-0.3174481279190326</v>
       </c>
       <c r="D92">
-        <v>0.01902096648372071</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93">
+        <v>2</v>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tmem160</t>
+          <t>Ppif</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.7785598149513288</v>
+        <v>-0.550066237138701</v>
       </c>
       <c r="D93">
-        <v>0.00930755014973004</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94">
+        <v>2</v>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ccdc59</t>
+          <t>Atp5j</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.3882599464528861</v>
+        <v>-0.4796261666086762</v>
       </c>
       <c r="D94">
-        <v>0.00936655097332152</v>
+        <v>0.0005449586332035287</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cmpk2</t>
+          <t>Atp5o</t>
         </is>
       </c>
       <c r="C95">
-        <v>5.169713885372582</v>
+        <v>-0.2763555813100562</v>
       </c>
       <c r="D95">
-        <v>0.00200921965551821</v>
+        <v>0.0009145016975501976</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
-        <v>1</v>
-      </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rsad2</t>
+          <t>1110004E09Rik</t>
         </is>
       </c>
       <c r="C96">
-        <v>4.950718050006491</v>
+        <v>-0.4053128573475651</v>
       </c>
       <c r="D96">
-        <v>0.0009196851532549836</v>
+        <v>0.01952864849493658</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2010107E04Rik</t>
+          <t>Krt7</t>
         </is>
       </c>
       <c r="C97">
-        <v>-0.7277222812200356</v>
+        <v>-4.402773048584626</v>
       </c>
       <c r="D97">
-        <v>1.894832370497952e-12</v>
+        <v>0.01791268933044461</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
-        <v>2</v>
-      </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Btf3</t>
+          <t>Igfbp6</t>
         </is>
       </c>
       <c r="C98">
-        <v>-0.3174481279190333</v>
+        <v>-2.915742770200416</v>
       </c>
       <c r="D98">
-        <v>0.00936655097332152</v>
+        <v>0.0260681819242742</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ppif</t>
+          <t>Bsg</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.5500662371387024</v>
+        <v>-0.3945204111180863</v>
       </c>
       <c r="D99">
-        <v>0.03277896192965388</v>
+        <v>0.0001605215023865275</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
-        <v>3</v>
-      </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Atp5j</t>
+          <t>Lpin2</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.4796261666086752</v>
+        <v>0.6227466474484258</v>
       </c>
       <c r="D100">
-        <v>0.000544958633238181</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Atp5o</t>
+          <t>Xdh</t>
         </is>
       </c>
       <c r="C101">
-        <v>-0.2763555813100579</v>
+        <v>1.184745208135283</v>
       </c>
       <c r="D101">
-        <v>0.0009145016978814392</v>
+        <v>0.0009145016975501976</v>
       </c>
     </row>
     <row r="102">
+      <c r="A102">
+        <v>7</v>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1110004E09Rik</t>
+          <t>Brd2</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.4053128573475663</v>
+        <v>-0.378658808324318</v>
       </c>
       <c r="D102">
-        <v>0.0195286484946758</v>
+        <v>0.00196730658717667</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Krt7</t>
+          <t>Tap2</t>
         </is>
       </c>
       <c r="C103">
-        <v>-4.402773048584629</v>
+        <v>0.8173454170771249</v>
       </c>
       <c r="D103">
-        <v>0.01791268932939229</v>
+        <v>0.03315812193283362</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104">
+        <v>19</v>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Igfbp6</t>
+          <t>Drap1</t>
         </is>
       </c>
       <c r="C104">
-        <v>-2.915742770200414</v>
+        <v>-0.320808312859571</v>
       </c>
       <c r="D104">
-        <v>0.02606818192166425</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bsg</t>
+          <t>Mrpl43</t>
         </is>
       </c>
       <c r="C105">
-        <v>-0.3945204111180869</v>
+        <v>-0.3868067495883763</v>
       </c>
       <c r="D105">
-        <v>0.0001605215024246578</v>
+        <v>0.01551411003627931</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106">
+        <v>3</v>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lpin2</t>
+          <t>Rps26</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.6227466474484251</v>
+        <v>-0.2798202764637763</v>
       </c>
       <c r="D106">
-        <v>0.03900016812707151</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Xdh</t>
+          <t>Rplp2</t>
         </is>
       </c>
       <c r="C107">
-        <v>1.184745208135278</v>
+        <v>-0.3772447293654123</v>
       </c>
       <c r="D107">
-        <v>0.0009145016978814392</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
-        <v>21</v>
-      </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Brd2</t>
+          <t>Sec11a</t>
         </is>
       </c>
       <c r="C108">
-        <v>-0.3786588083243145</v>
+        <v>-0.2664775512079659</v>
       </c>
       <c r="D108">
-        <v>0.00196730658744987</v>
+        <v>0.04412449928022861</v>
       </c>
     </row>
     <row r="109">
+      <c r="A109">
+        <v>1</v>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Drap1</t>
+          <t>Sp100</t>
         </is>
       </c>
       <c r="C109">
-        <v>-0.3208083128595717</v>
+        <v>2.819176062041834</v>
       </c>
       <c r="D109">
-        <v>0.0305058511316976</v>
+        <v>0.01691257625954287</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mrpl43</t>
+          <t>Zbp1</t>
         </is>
       </c>
       <c r="C110">
-        <v>-0.3868067495883707</v>
+        <v>3.963083262548574</v>
       </c>
       <c r="D110">
-        <v>0.01551411003660735</v>
+        <v>0.01444076571243263</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Rps26</t>
+          <t>Supt20</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.2798202764637773</v>
+        <v>0.4125666925108614</v>
       </c>
       <c r="D111">
-        <v>0.04257024761234196</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Rplp2</t>
+          <t>Ifi44</t>
         </is>
       </c>
       <c r="C112">
-        <v>-0.3772447293654116</v>
+        <v>3.794775234367702</v>
       </c>
       <c r="D112">
-        <v>0.02211292208551394</v>
+        <v>0.03550524067001975</v>
       </c>
     </row>
     <row r="113">
+      <c r="A113">
+        <v>3</v>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sec11a</t>
+          <t>Rps3a1</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.2664775512079839</v>
+        <v>-0.2562178795696486</v>
       </c>
       <c r="D113">
-        <v>0.04412449928642177</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114">
-        <v>1</v>
-      </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sp100</t>
+          <t>Clca1</t>
         </is>
       </c>
       <c r="C114">
-        <v>2.819176062041834</v>
+        <v>-3.239407927377884</v>
       </c>
       <c r="D114">
-        <v>0.01691257625866199</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="115">
@@ -2103,72 +2124,75 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Zbp1</t>
+          <t>Gbp3</t>
         </is>
       </c>
       <c r="C115">
-        <v>3.963083262548574</v>
+        <v>2.762792984882857</v>
       </c>
       <c r="D115">
-        <v>0.0144407657120812</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="116">
+      <c r="A116">
+        <v>1</v>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Supt20</t>
+          <t>Gbp2</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.4125666925108856</v>
+        <v>3.152445412196215</v>
       </c>
       <c r="D116">
-        <v>0.03782848334181468</v>
+        <v>0.00505594871683344</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117">
-        <v>1</v>
-      </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ifi44</t>
+          <t>Pithd1</t>
         </is>
       </c>
       <c r="C117">
-        <v>3.794775234367702</v>
+        <v>-0.4802159970439303</v>
       </c>
       <c r="D117">
-        <v>0.03550524066706588</v>
+        <v>0.02514286284711538</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Necap2</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>-0.4289970041593343</v>
+      </c>
+      <c r="D118">
+        <v>0.03096086714413687</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
         <v>2</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Rps3a1</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>-0.2562178795696496</v>
-      </c>
-      <c r="D118">
-        <v>0.03633971621978432</v>
-      </c>
-    </row>
-    <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Clca1</t>
+          <t>Tomm7</t>
         </is>
       </c>
       <c r="C119">
-        <v>-3.23940792737788</v>
+        <v>-0.418341188169861</v>
       </c>
       <c r="D119">
-        <v>0.03900016812707151</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="120">
@@ -2177,14 +2201,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Gbp3</t>
+          <t>Oasl2</t>
         </is>
       </c>
       <c r="C120">
-        <v>2.762792984882858</v>
+        <v>2.608403847115867</v>
       </c>
       <c r="D120">
-        <v>0.01506999081389644</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="121">
@@ -2193,78 +2217,75 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gbp2</t>
+          <t>Herc6</t>
         </is>
       </c>
       <c r="C121">
-        <v>3.152445412196216</v>
+        <v>3.431683799039823</v>
       </c>
       <c r="D121">
-        <v>0.00505594871660418</v>
+        <v>0.00940986749948737</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pithd1</t>
+          <t>Abtb1</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.4802159970439589</v>
+        <v>-0.5557725679080386</v>
       </c>
       <c r="D122">
-        <v>0.02514286284877377</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Necap2</t>
+          <t>Usp18</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.4289970041593349</v>
+        <v>2.977766531879115</v>
       </c>
       <c r="D123">
-        <v>0.03096086714316363</v>
+        <v>0.01741509362325269</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124">
-        <v>3</v>
-      </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Tomm7</t>
+          <t>Mlf2</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.4183411881698608</v>
+        <v>-0.4152387952676184</v>
       </c>
       <c r="D124">
-        <v>0.00562583898236186</v>
+        <v>0.0260681819242742</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Oasl2</t>
+          <t>Hpx</t>
         </is>
       </c>
       <c r="C125">
-        <v>2.608403847115865</v>
+        <v>-2.157875401550138</v>
       </c>
       <c r="D125">
-        <v>0.03277896192965388</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="126">
@@ -2273,27 +2294,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Herc6</t>
+          <t>Trim30a</t>
         </is>
       </c>
       <c r="C126">
-        <v>3.431683799039828</v>
+        <v>3.137379120129999</v>
       </c>
       <c r="D126">
-        <v>0.00940986749899699</v>
+        <v>0.00936524164131753</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Abtb1</t>
+          <t>Slc9a9</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.5557725679080412</v>
+        <v>1.143327141501091</v>
       </c>
       <c r="D127">
-        <v>0.03633971621978432</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="128">
@@ -2302,46 +2323,46 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Usp18</t>
+          <t>Tlr3</t>
         </is>
       </c>
       <c r="C128">
-        <v>2.977766531879114</v>
+        <v>1.20123481230403</v>
       </c>
       <c r="D128">
-        <v>0.01741509362642408</v>
+        <v>0.03522641241103515</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mlf2</t>
+          <t>Aplp2</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.41523879526762</v>
+        <v>-0.3521921377677826</v>
       </c>
       <c r="D129">
-        <v>0.02606818192166425</v>
+        <v>0.02289688513792529</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hpx</t>
+          <t>Lgals3bp</t>
         </is>
       </c>
       <c r="C130">
-        <v>-2.157875401550114</v>
+        <v>0.7404154891407403</v>
       </c>
       <c r="D130">
-        <v>0.00470179753198625</v>
+        <v>0.00579852748875405</v>
       </c>
     </row>
     <row r="131">
@@ -2350,496 +2371,493 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Trim30a</t>
+          <t>Parp14</t>
         </is>
       </c>
       <c r="C131">
-        <v>3.13737912013</v>
+        <v>1.858188748004512</v>
       </c>
       <c r="D131">
-        <v>0.009365241640226641</v>
+        <v>0.03096086714413687</v>
       </c>
     </row>
     <row r="132">
+      <c r="A132">
+        <v>1</v>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Slc9a9</t>
+          <t>Ifit1</t>
         </is>
       </c>
       <c r="C132">
-        <v>1.14332714150095</v>
+        <v>5.050350004744043</v>
       </c>
       <c r="D132">
-        <v>0.03474960898520096</v>
+        <v>0.00232915382812913</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tlr3</t>
+          <t>Atp5h</t>
         </is>
       </c>
       <c r="C133">
-        <v>1.201234812304025</v>
+        <v>-0.4362669287304909</v>
       </c>
       <c r="D133">
-        <v>0.03522641240978767</v>
+        <v>0.0001818710939635323</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134">
-        <v>24</v>
-      </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Aplp2</t>
+          <t>Ccdc186</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.3521921377677794</v>
+        <v>-0.3054867229600383</v>
       </c>
       <c r="D134">
-        <v>0.02289688514022564</v>
+        <v>0.04190350078936811</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135">
-        <v>1</v>
-      </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lgals3bp</t>
+          <t>5031439G07Rik</t>
         </is>
       </c>
       <c r="C135">
-        <v>0.7404154891407395</v>
+        <v>-0.3408493752554035</v>
       </c>
       <c r="D135">
-        <v>0.00579852748822372</v>
+        <v>0.03315812193283362</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Parp14</t>
+          <t>Hist1h1c</t>
         </is>
       </c>
       <c r="C136">
-        <v>1.858188748004513</v>
+        <v>-0.7682067311205484</v>
       </c>
       <c r="D136">
-        <v>0.03096086714316363</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ifit1</t>
+          <t>Agr3</t>
         </is>
       </c>
       <c r="C137">
-        <v>5.050350004744045</v>
+        <v>-3.105888275324154</v>
       </c>
       <c r="D137">
-        <v>0.00232915382829124</v>
+        <v>0.02974800127151333</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138">
-        <v>3</v>
-      </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Atp5h</t>
+          <t>Igsf10</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.4362669287304904</v>
+        <v>0.6624135654427014</v>
       </c>
       <c r="D138">
-        <v>0.0001818710940015185</v>
+        <v>0.01162913763080104</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139">
-        <v>17</v>
-      </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ccdc186</t>
+          <t>Prkcdbp</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.30548672296005</v>
+        <v>-1.212505236786419</v>
       </c>
       <c r="D139">
-        <v>0.04190350079464565</v>
+        <v>0.02353655028589543</v>
       </c>
     </row>
     <row r="140">
+      <c r="A140">
+        <v>16</v>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>5031439G07Rik</t>
+          <t>Phc3</t>
         </is>
       </c>
       <c r="C140">
-        <v>-0.3408493752553961</v>
+        <v>0.2760633706216254</v>
       </c>
       <c r="D140">
-        <v>0.0331581219298428</v>
+        <v>0.02941351822666509</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Hist1h1c</t>
+          <t>Jmjd1c</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.7682067311205487</v>
+        <v>0.3561031967675924</v>
       </c>
       <c r="D141">
-        <v>0.03633971621978432</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Agr3</t>
+          <t>H2afz</t>
         </is>
       </c>
       <c r="C142">
-        <v>-3.105888275324174</v>
+        <v>-0.3812625226317242</v>
       </c>
       <c r="D142">
-        <v>0.02974800126808489</v>
+        <v>0.03744843589187449</v>
       </c>
     </row>
     <row r="143">
+      <c r="A143">
+        <v>1</v>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Igsf10</t>
+          <t>Ddx60</t>
         </is>
       </c>
       <c r="C143">
-        <v>0.6624135654426996</v>
+        <v>2.786283055468535</v>
       </c>
       <c r="D143">
-        <v>0.01162913763317422</v>
+        <v>0.01791268933044461</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Prkcdbp</t>
+          <t>Osbpl7</t>
         </is>
       </c>
       <c r="C144">
-        <v>-1.212505236786418</v>
+        <v>0.5888986194685472</v>
       </c>
       <c r="D144">
-        <v>0.02353655029410975</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Phc3</t>
+          <t>Atp5j2</t>
         </is>
       </c>
       <c r="C145">
-        <v>0.2760633706216135</v>
+        <v>-0.3016750510943599</v>
       </c>
       <c r="D145">
-        <v>0.02941351823151872</v>
+        <v>0.03815898389959085</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jmjd1c</t>
+          <t>Tnfsf10</t>
         </is>
       </c>
       <c r="C146">
-        <v>0.3561031967675963</v>
+        <v>1.49833840233693</v>
       </c>
       <c r="D146">
-        <v>0.03633971621978432</v>
+        <v>0.02420117856320826</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>H2afz</t>
+          <t>Znfx1</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.3812625226317269</v>
+        <v>1.279043758772737</v>
       </c>
       <c r="D147">
-        <v>0.03744843589773192</v>
+        <v>0.00579852748875405</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ddx60</t>
+          <t>Mrps6</t>
         </is>
       </c>
       <c r="C148">
-        <v>2.786283055468533</v>
+        <v>-0.6131168956067455</v>
       </c>
       <c r="D148">
-        <v>0.01791268932939229</v>
+        <v>0.01299851499152782</v>
       </c>
     </row>
     <row r="149">
+      <c r="A149">
+        <v>1</v>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Osbpl7</t>
+          <t>Trim14</t>
         </is>
       </c>
       <c r="C149">
-        <v>0.5888986194685617</v>
+        <v>1.483176225400203</v>
       </c>
       <c r="D149">
-        <v>0.01506999081389644</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150">
-        <v>3</v>
-      </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atp5j2</t>
+          <t>Gbp7</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.3016750510943608</v>
+        <v>2.217048719144074</v>
       </c>
       <c r="D150">
-        <v>0.03815898390132159</v>
+        <v>0.00998114484854677</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151">
-        <v>1</v>
-      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tnfsf10</t>
+          <t>Tet2</t>
         </is>
       </c>
       <c r="C151">
-        <v>1.498338402336909</v>
+        <v>0.3228517453352341</v>
       </c>
       <c r="D151">
-        <v>0.02420117856227219</v>
+        <v>0.01444076571243263</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Znfx1</t>
+          <t>2310036O22Rik</t>
         </is>
       </c>
       <c r="C152">
-        <v>1.279043758772736</v>
+        <v>-0.3953865629371426</v>
       </c>
       <c r="D152">
-        <v>0.00579852748822372</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mrps6</t>
+          <t>Rptn</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.6131168956067455</v>
+        <v>-3.210428537725509</v>
       </c>
       <c r="D153">
-        <v>0.01299851499076814</v>
+        <v>0.0020092196556229</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Trim14</t>
+          <t>S100a14</t>
         </is>
       </c>
       <c r="C154">
-        <v>1.4831762254002</v>
+        <v>-1.000235229431388</v>
       </c>
       <c r="D154">
-        <v>0.03477815041019694</v>
+        <v>0.03892332658775081</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155">
-        <v>1</v>
-      </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Gbp7</t>
+          <t>S100a13</t>
         </is>
       </c>
       <c r="C155">
-        <v>2.217048719144076</v>
+        <v>-1.209567788499966</v>
       </c>
       <c r="D155">
-        <v>0.009981144849153479</v>
+        <v>0.00482864718899447</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tet2</t>
+          <t>Shfm1</t>
         </is>
       </c>
       <c r="C156">
-        <v>0.3228517453352397</v>
+        <v>-0.3908345153094612</v>
       </c>
       <c r="D156">
-        <v>0.0144407657120812</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>2310036O22Rik</t>
+          <t>Npb</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.3953865629371456</v>
+        <v>-1.106478518549228</v>
       </c>
       <c r="D157">
-        <v>0.0305058511316976</v>
+        <v>0.0315850802985153</v>
       </c>
     </row>
     <row r="158">
+      <c r="A158">
+        <v>1</v>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Rptn</t>
+          <t>Ifit2</t>
         </is>
       </c>
       <c r="C158">
-        <v>-3.210428537725516</v>
+        <v>2.816999298429498</v>
       </c>
       <c r="D158">
-        <v>0.00200921965551821</v>
+        <v>0.01346751797841814</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>S100a14</t>
+          <t>Patl1</t>
         </is>
       </c>
       <c r="C159">
-        <v>-1.000235229431384</v>
+        <v>0.4072877540058924</v>
       </c>
       <c r="D159">
-        <v>0.03892332658513309</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>S100a13</t>
+          <t>Tmem229b</t>
         </is>
       </c>
       <c r="C160">
-        <v>-1.20956778849996</v>
+        <v>1.368115044003816</v>
       </c>
       <c r="D160">
-        <v>0.00482864718897562</v>
+        <v>0.0181589895248647</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Shfm1</t>
+          <t>Scand1</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.3908345153094576</v>
+        <v>-0.6665737782383648</v>
       </c>
       <c r="D161">
-        <v>0.04083801840135327</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="162">
+      <c r="A162">
+        <v>4</v>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Npb</t>
+          <t>Rnf152</t>
         </is>
       </c>
       <c r="C162">
-        <v>-1.106478518549222</v>
+        <v>0.4654245597123298</v>
       </c>
       <c r="D162">
-        <v>0.03158508029709764</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ifit2</t>
+          <t>Rpl29</t>
         </is>
       </c>
       <c r="C163">
-        <v>2.816999298429498</v>
+        <v>-0.3666293643690085</v>
       </c>
       <c r="D163">
-        <v>0.01346751797729864</v>
+        <v>0.04565313349942448</v>
       </c>
     </row>
     <row r="164">
@@ -2848,454 +2866,448 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Patl1</t>
+          <t>Krt78</t>
         </is>
       </c>
       <c r="C164">
-        <v>0.4072877540059328</v>
+        <v>-1.300843003240735</v>
       </c>
       <c r="D164">
-        <v>0.0305058511316976</v>
+        <v>0.01801151305031944</v>
       </c>
     </row>
     <row r="165">
+      <c r="A165">
+        <v>2</v>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tmem229b</t>
+          <t>Minos1</t>
         </is>
       </c>
       <c r="C165">
-        <v>1.368115044003935</v>
+        <v>-0.2882896912104574</v>
       </c>
       <c r="D165">
-        <v>0.01815898952542409</v>
+        <v>0.01162913763080104</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Scand1</t>
+          <t>Trim15</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.6665737782383631</v>
+        <v>1.596278381755023</v>
       </c>
       <c r="D166">
-        <v>0.04257024761234196</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rpl29</t>
+          <t>Gan</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.3666293643690056</v>
+        <v>-0.4831173352246635</v>
       </c>
       <c r="D167">
-        <v>0.0456531334999021</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="168">
+      <c r="A168">
+        <v>6</v>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Krt78</t>
+          <t>H2-T24</t>
         </is>
       </c>
       <c r="C168">
-        <v>-1.300843003240734</v>
+        <v>2.067757412963034</v>
       </c>
       <c r="D168">
-        <v>0.0180115130483782</v>
+        <v>0.02916021885191409</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Trim15</t>
+          <t>Iigp1</t>
         </is>
       </c>
       <c r="C169">
-        <v>1.596278381755028</v>
+        <v>2.32803078298343</v>
       </c>
       <c r="D169">
-        <v>0.03633971621978432</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Gan</t>
+          <t>Fkbp2</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.4831173352246615</v>
+        <v>-0.3965013451313776</v>
       </c>
       <c r="D170">
-        <v>0.03477815041019694</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>H2-T24</t>
+          <t>Trim30d</t>
         </is>
       </c>
       <c r="C171">
-        <v>2.067757412963037</v>
+        <v>3.477563723652379</v>
       </c>
       <c r="D171">
-        <v>0.02916021884922362</v>
+        <v>0.00324846829458325</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172">
-        <v>1</v>
-      </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Iigp1</t>
+          <t>Gm5431</t>
         </is>
       </c>
       <c r="C172">
-        <v>2.328030782983395</v>
+        <v>3.322311344183443</v>
       </c>
       <c r="D172">
-        <v>0.00936655097332152</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="173">
+      <c r="A173">
+        <v>3</v>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fkbp2</t>
+          <t>Rpl23a</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.3965013451313803</v>
+        <v>-0.3469650158918668</v>
       </c>
       <c r="D173">
-        <v>0.04492372637610642</v>
+        <v>0.01741509362325269</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Trim30d</t>
+          <t>Rpl18</t>
         </is>
       </c>
       <c r="C174">
-        <v>3.47756372365238</v>
+        <v>-0.34083943617731</v>
       </c>
       <c r="D174">
-        <v>0.00324846829448333</v>
+        <v>0.02684755218342155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Gm5431</t>
+          <t>H2afj</t>
         </is>
       </c>
       <c r="C175">
-        <v>3.322311344183442</v>
+        <v>-0.7436045914685907</v>
       </c>
       <c r="D175">
-        <v>0.03782848334181468</v>
+        <v>7.588970384703425e-06</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176">
-        <v>2</v>
-      </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rpl23a</t>
+          <t>Hist1h4c</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.3469650158918686</v>
+        <v>-0.7351454973211352</v>
       </c>
       <c r="D176">
-        <v>0.01741509362642408</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177">
-        <v>2</v>
-      </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Rpl18</t>
+          <t>Arl1</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.3408394361773102</v>
+        <v>-0.2725497014834007</v>
       </c>
       <c r="D177">
-        <v>0.02684755218531689</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178">
-        <v>6</v>
-      </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>H2afj</t>
+          <t>Hist1h4d</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.7436045914685921</v>
+        <v>-0.7242825220118058</v>
       </c>
       <c r="D178">
-        <v>7.588970384797442e-06</v>
+        <v>0.02242589890025613</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hist1h4c</t>
+          <t>Rpl34</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.7351454973211333</v>
+        <v>-0.3944236043809506</v>
       </c>
       <c r="D179">
-        <v>0.03474960898520096</v>
+        <v>0.04546639833373871</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Arl1</t>
+          <t>Ifit3b</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.2725497014833948</v>
+        <v>5.280249149498188</v>
       </c>
       <c r="D180">
-        <v>0.03782848334181468</v>
+        <v>0.0008689191171007392</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181">
-        <v>6</v>
-      </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hist1h4d</t>
+          <t>Fabp4</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.7242825220118112</v>
+        <v>-0.7423874041755378</v>
       </c>
       <c r="D181">
-        <v>0.02242589890201382</v>
+        <v>0.00329047477818517</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182">
-        <v>2</v>
-      </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Rpl34</t>
+          <t>2010109I03Rik</t>
         </is>
       </c>
       <c r="C182">
-        <v>-0.3944236043809517</v>
+        <v>-2.397517316288366</v>
       </c>
       <c r="D182">
-        <v>0.04546639834046843</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183">
-        <v>1</v>
-      </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ifit3b</t>
+          <t>Nkx6-3</t>
         </is>
       </c>
       <c r="C183">
-        <v>5.280249149498188</v>
+        <v>-7.015542953881983</v>
       </c>
       <c r="D183">
-        <v>0.0008689191171967279</v>
+        <v>0.00247545732367506</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Fabp4</t>
+          <t>Ifi27</t>
         </is>
       </c>
       <c r="C184">
-        <v>-0.7423874041755367</v>
+        <v>0.6688633984539523</v>
       </c>
       <c r="D184">
-        <v>0.00329047477780804</v>
+        <v>0.009673264429131089</v>
       </c>
     </row>
     <row r="185">
+      <c r="A185">
+        <v>7</v>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2010109I03Rik</t>
+          <t>Hist2h2aa1</t>
         </is>
       </c>
       <c r="C185">
-        <v>-2.397517316288367</v>
+        <v>-0.3679593995787661</v>
       </c>
       <c r="D185">
-        <v>0.03277896192965388</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="186">
+      <c r="A186">
+        <v>2</v>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nkx6-3</t>
+          <t>mt-Nd6</t>
         </is>
       </c>
       <c r="C186">
-        <v>-7.015542953881988</v>
+        <v>0.6616392960129375</v>
       </c>
       <c r="D186">
-        <v>0.00247545732338662</v>
+        <v>0.04580293991246836</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187">
-        <v>1</v>
-      </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ifi27</t>
+          <t>n-R5-8s1</t>
         </is>
       </c>
       <c r="C187">
-        <v>0.6688633984539529</v>
+        <v>1.046078690049043</v>
       </c>
       <c r="D187">
-        <v>0.009673264429536661</v>
+        <v>0.02289688513792529</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hist2h2aa1</t>
+          <t>Aurkaip1</t>
         </is>
       </c>
       <c r="C188">
-        <v>-0.3679593995787733</v>
+        <v>-0.4687912218656131</v>
       </c>
       <c r="D188">
-        <v>0.00470179753198625</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>mt-Nd6</t>
+          <t>Phf11d</t>
         </is>
       </c>
       <c r="C189">
-        <v>0.6616392960129371</v>
+        <v>1.817137857669323</v>
       </c>
       <c r="D189">
-        <v>0.04580293991767476</v>
+        <v>0.02353655028589543</v>
       </c>
     </row>
     <row r="190">
+      <c r="A190">
+        <v>7</v>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>n-R5-8s1</t>
+          <t>Hist1h4m</t>
         </is>
       </c>
       <c r="C190">
-        <v>1.046078690049057</v>
+        <v>-1.00733077416072</v>
       </c>
       <c r="D190">
-        <v>0.02289688514022564</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Phf11d</t>
+          <t>4930438A08Rik</t>
         </is>
       </c>
       <c r="C191">
-        <v>1.817137857669314</v>
+        <v>-4.248675433928227</v>
       </c>
       <c r="D191">
-        <v>0.02353655029410975</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192">
-        <v>6</v>
-      </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Hist1h4m</t>
+          <t>9930111J21Rik2</t>
         </is>
       </c>
       <c r="C192">
-        <v>-1.007330774160721</v>
+        <v>0.980455743324533</v>
       </c>
       <c r="D192">
-        <v>0.04257024761234196</v>
+        <v>0.01952864849493658</v>
       </c>
     </row>
     <row r="193">
+      <c r="A193">
+        <v>1</v>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>4930438A08Rik</t>
+          <t>Sp110</t>
         </is>
       </c>
       <c r="C193">
-        <v>-4.248675433928231</v>
+        <v>2.095991410146162</v>
       </c>
       <c r="D193">
-        <v>0.01557323154892728</v>
+        <v>0.008779509299285121</v>
       </c>
     </row>
     <row r="194">
@@ -3304,91 +3316,91 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>9930111J21Rik2</t>
+          <t>Rnf213</t>
         </is>
       </c>
       <c r="C194">
-        <v>0.9804557433245308</v>
+        <v>2.137166671871332</v>
       </c>
       <c r="D194">
-        <v>0.0195286484946758</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sp110</t>
+          <t>Chchd2</t>
         </is>
       </c>
       <c r="C195">
-        <v>2.095991410146141</v>
+        <v>-0.4112802965966461</v>
       </c>
       <c r="D195">
-        <v>0.008779509299463259</v>
+        <v>0.01408956698401393</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Rnf213</t>
+          <t>Srp54a</t>
         </is>
       </c>
       <c r="C196">
-        <v>2.137166671871327</v>
+        <v>0.9273840692554648</v>
       </c>
       <c r="D196">
-        <v>0.03477815041019694</v>
+        <v>0.03315812193283362</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197">
-        <v>2</v>
-      </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Srp54a</t>
+          <t>AA474408</t>
         </is>
       </c>
       <c r="C197">
-        <v>0.9273840692554656</v>
+        <v>1.15256381075751</v>
       </c>
       <c r="D197">
-        <v>0.0331581219298428</v>
+        <v>0.00129529992113023</v>
       </c>
     </row>
     <row r="198">
+      <c r="A198">
+        <v>3</v>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AA474408</t>
+          <t>Rpl13a</t>
         </is>
       </c>
       <c r="C198">
-        <v>1.15256381075752</v>
+        <v>-0.4693569324656295</v>
       </c>
       <c r="D198">
-        <v>0.00129529992099325</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Rpl13a</t>
+          <t>Nlrc5</t>
         </is>
       </c>
       <c r="C199">
-        <v>-0.4693569324656254</v>
+        <v>3.208131522693819</v>
       </c>
       <c r="D199">
-        <v>0.0305058511316976</v>
+        <v>0.01661820551898223</v>
       </c>
     </row>
     <row r="200">
@@ -3397,56 +3409,56 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nlrc5</t>
+          <t>Ifit3</t>
         </is>
       </c>
       <c r="C200">
-        <v>3.208131522693819</v>
+        <v>4.687161658924641</v>
       </c>
       <c r="D200">
-        <v>0.01661820551864299</v>
+        <v>0.0017264301856411</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201">
-        <v>1</v>
-      </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ifit3</t>
+          <t>Gm23935</t>
         </is>
       </c>
       <c r="C201">
-        <v>4.687161658924638</v>
+        <v>0.8965572894429772</v>
       </c>
       <c r="D201">
-        <v>0.00172643018556285</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Gm23935</t>
+          <t>Gm24270</t>
         </is>
       </c>
       <c r="C202">
-        <v>0.896557289442975</v>
+        <v>0.7761475791155057</v>
       </c>
       <c r="D202">
-        <v>0.00562583898236186</v>
+        <v>0.04412449928022861</v>
       </c>
     </row>
     <row r="203">
+      <c r="A203">
+        <v>1</v>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Gm24270</t>
+          <t>Gm14446</t>
         </is>
       </c>
       <c r="C203">
-        <v>0.7761475791155124</v>
+        <v>4.458856104011836</v>
       </c>
       <c r="D203">
-        <v>0.04412449928642177</v>
+        <v>0.00129529992113023</v>
       </c>
     </row>
     <row r="204">
@@ -3455,69 +3467,69 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Gm14446</t>
+          <t>Gbp6</t>
         </is>
       </c>
       <c r="C204">
-        <v>4.458856104011831</v>
+        <v>2.449694358766036</v>
       </c>
       <c r="D204">
-        <v>0.00129529992099325</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205">
-        <v>1</v>
-      </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Gbp6</t>
+          <t>Rpl19-ps11</t>
         </is>
       </c>
       <c r="C205">
-        <v>2.449694358766036</v>
+        <v>-0.4509671898583368</v>
       </c>
       <c r="D205">
-        <v>0.03477815041019694</v>
+        <v>0.00459294254044591</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Rpl19-ps11</t>
+          <t>Gm12250</t>
         </is>
       </c>
       <c r="C206">
-        <v>-0.4509671898583348</v>
+        <v>4.403195032825928</v>
       </c>
       <c r="D206">
-        <v>0.00459294254098328</v>
+        <v>0.0176357401032901</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gm12250</t>
+          <t>Gm5526</t>
         </is>
       </c>
       <c r="C207">
-        <v>4.403195032825925</v>
+        <v>-0.8899647675100645</v>
       </c>
       <c r="D207">
-        <v>0.01763574010417309</v>
+        <v>0.00214492985706952</v>
       </c>
     </row>
     <row r="208">
+      <c r="A208">
+        <v>2</v>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Gm5526</t>
+          <t>Pet100</t>
         </is>
       </c>
       <c r="C208">
-        <v>-0.8899647675100677</v>
+        <v>-0.4881954958730064</v>
       </c>
       <c r="D208">
-        <v>0.00214492985690313</v>
+        <v>0.009525611148478989</v>
       </c>
     </row>
     <row r="209">
@@ -3527,15 +3539,15 @@
         </is>
       </c>
       <c r="C209">
-        <v>1.167326972083206</v>
+        <v>1.167326972083204</v>
       </c>
       <c r="D209">
-        <v>0.0009196851532549836</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3543,15 +3555,15 @@
         </is>
       </c>
       <c r="C210">
-        <v>-0.6630318669611848</v>
+        <v>-0.6630318669611829</v>
       </c>
       <c r="D210">
-        <v>0.03488258415377721</v>
+        <v>0.03488258414832022</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3559,10 +3571,10 @@
         </is>
       </c>
       <c r="C211">
-        <v>-0.3731636487316149</v>
+        <v>-0.3731636487316165</v>
       </c>
       <c r="D211">
-        <v>0.04083801840135327</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="212">
@@ -3572,10 +3584,10 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.8717460950949064</v>
+        <v>0.8717460950949223</v>
       </c>
       <c r="D212">
-        <v>0.0189210820647947</v>
+        <v>0.018921082065083</v>
       </c>
     </row>
     <row r="213">
@@ -3585,10 +3597,10 @@
         </is>
       </c>
       <c r="C213">
-        <v>-0.5702160728667967</v>
+        <v>-0.570216072866795</v>
       </c>
       <c r="D213">
-        <v>0.04492372637610642</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="214">
@@ -3601,10 +3613,10 @@
         </is>
       </c>
       <c r="C214">
-        <v>1.85911475688301</v>
+        <v>1.859114756883021</v>
       </c>
       <c r="D214">
-        <v>0.008796238015231571</v>
+        <v>0.008796238015393049</v>
       </c>
     </row>
     <row r="215">
@@ -3614,10 +3626,10 @@
         </is>
       </c>
       <c r="C215">
-        <v>1.331250980100857</v>
+        <v>1.331250980100856</v>
       </c>
       <c r="D215">
-        <v>0.01549569644597233</v>
+        <v>0.01549569644594037</v>
       </c>
     </row>
   </sheetData>

--- a/R_output_files/Tables/Significant_Genes_Cluster_Annotation.xlsx
+++ b/R_output_files/Tables/Significant_Genes_Cluster_Annotation.xlsx
@@ -381,50 +381,50 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cox6c</t>
+          <t>Rps11</t>
         </is>
       </c>
       <c r="C2">
-        <v>-0.6136940551485014</v>
+        <v>-0.423684419793032</v>
       </c>
       <c r="D2">
-        <v>2.133863963787013e-07</v>
+        <v>0.04401564446105166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ndufs6</t>
+          <t>Rps9</t>
         </is>
       </c>
       <c r="C3">
-        <v>-0.4114188685873477</v>
+        <v>-0.3778846426156845</v>
       </c>
       <c r="D3">
-        <v>0.04316546773182005</v>
+        <v>0.03488258414832022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ndufs4</t>
+          <t>Rplp1</t>
         </is>
       </c>
       <c r="C4">
-        <v>-0.3068420233685892</v>
+        <v>-0.7100741567090141</v>
       </c>
       <c r="D4">
-        <v>0.03474960898356018</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="5">
@@ -433,43 +433,46 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ndufa6</t>
+          <t>Cox6c</t>
         </is>
       </c>
       <c r="C5">
-        <v>-0.4520760132200045</v>
+        <v>-0.6136940551485014</v>
       </c>
       <c r="D5">
-        <v>0.02514286284711538</v>
+        <v>2.133863963787013e-07</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ndufb4</t>
+          <t>Atp5e</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.4271431255388099</v>
+        <v>-0.372562968980597</v>
       </c>
       <c r="D6">
-        <v>0.00232915382812913</v>
+        <v>0.04815621131608248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cox7b</t>
+          <t>Rpl19</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.4002077741105515</v>
+        <v>-0.4761544188765737</v>
       </c>
       <c r="D7">
-        <v>0.008779509299285121</v>
+        <v>0.0003654438157078666</v>
       </c>
     </row>
     <row r="8">
@@ -478,14 +481,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cox4i1</t>
+          <t>Atp6v1d</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.3225514272635607</v>
+        <v>-0.3045465579884751</v>
       </c>
       <c r="D8">
-        <v>0.04156990062621944</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="9">
@@ -494,14 +497,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ndufa13</t>
+          <t>Ndufs6</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.5141287239919096</v>
+        <v>-0.4114188685873477</v>
       </c>
       <c r="D9">
-        <v>4.690907003388417e-05</v>
+        <v>0.04316546773182005</v>
       </c>
     </row>
     <row r="10">
@@ -510,14 +513,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ndufb10</t>
+          <t>Ndufs4</t>
         </is>
       </c>
       <c r="C10">
-        <v>-0.2896488641274081</v>
+        <v>-0.3068420233685892</v>
       </c>
       <c r="D10">
-        <v>0.00964493364492745</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="11">
@@ -526,30 +529,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cox6a1</t>
+          <t>Ndufa6</t>
         </is>
       </c>
       <c r="C11">
-        <v>-0.4034218477138557</v>
+        <v>-0.4520760132200045</v>
       </c>
       <c r="D11">
-        <v>0.0305058511313818</v>
+        <v>0.02514286284711538</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uqcrq</t>
+          <t>Ndufb4</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.357578785565913</v>
+        <v>-0.4271431255388099</v>
       </c>
       <c r="D12">
-        <v>0.01253791012803849</v>
+        <v>0.00232915382812913</v>
       </c>
     </row>
     <row r="13">
@@ -558,1426 +558,1432 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gm3244</t>
+          <t>Atp5j</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.6110971568144076</v>
+        <v>-0.4796261666086762</v>
       </c>
       <c r="D13">
-        <v>0.00562583898175416</v>
+        <v>0.0005449586332035287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>H2-Q6</t>
+          <t>Atp5o</t>
         </is>
       </c>
       <c r="C14">
-        <v>2.102881237092282</v>
+        <v>-0.2763555813100562</v>
       </c>
       <c r="D14">
-        <v>0.0017264301856411</v>
+        <v>0.0009145016975501976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arsb</t>
+          <t>Eif2ak2</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.494235809677497</v>
+        <v>0.7643701441847944</v>
       </c>
       <c r="D15">
-        <v>0.00940986749948737</v>
+        <v>0.04803781147378225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B2m</t>
+          <t>Rps26</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.258444505816108</v>
+        <v>-0.2798202764637763</v>
       </c>
       <c r="D16">
-        <v>0.00239475167287818</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Epn1</t>
+          <t>Rplp2</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.4513605322798427</v>
+        <v>-0.3772447293654123</v>
       </c>
       <c r="D17">
-        <v>0.04156990062621944</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H2-Q4</t>
+          <t>Rps3a1</t>
         </is>
       </c>
       <c r="C18">
-        <v>1.467751011665882</v>
+        <v>-0.2562178795696486</v>
       </c>
       <c r="D18">
-        <v>0.0009145016975501976</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H2-Q7</t>
+          <t>Cox7b</t>
         </is>
       </c>
       <c r="C19">
-        <v>1.695135492302067</v>
+        <v>-0.4002077741105515</v>
       </c>
       <c r="D19">
-        <v>0.01060929420345149</v>
+        <v>0.008779509299285121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hras</t>
+          <t>Tlr3</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.4504025519597202</v>
+        <v>1.20123481230403</v>
       </c>
       <c r="D20">
-        <v>0.01506999081437321</v>
+        <v>0.03522641241103515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Psmb9</t>
+          <t>Cox4i1</t>
         </is>
       </c>
       <c r="C21">
-        <v>1.459191505035938</v>
+        <v>-0.3225514272635607</v>
       </c>
       <c r="D21">
-        <v>0.01506999081437321</v>
+        <v>0.04156990062621944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Psmb8</t>
+          <t>Atp5h</t>
         </is>
       </c>
       <c r="C22">
-        <v>1.636845627770704</v>
+        <v>-0.4362669287304909</v>
       </c>
       <c r="D22">
-        <v>0.0048111077919458</v>
+        <v>0.0001818710939635323</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Muc13</t>
+          <t>Isg15</t>
         </is>
       </c>
       <c r="C23">
-        <v>1.743861683319563</v>
+        <v>3.858134757511314</v>
       </c>
       <c r="D23">
-        <v>0.0009196851533285508</v>
+        <v>0.02577197745126051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pgam1</t>
+          <t>Ndufa13</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.3203020860636794</v>
+        <v>-0.5141287239919096</v>
       </c>
       <c r="D24">
-        <v>0.0305058511313818</v>
+        <v>4.690907003388417e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Psmd4</t>
+          <t>Atp5j2</t>
         </is>
       </c>
       <c r="C25">
-        <v>-0.2648123386640706</v>
+        <v>-0.3016750510943599</v>
       </c>
       <c r="D25">
-        <v>0.02355970558509391</v>
+        <v>0.03815898389959085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Uba52</t>
+          <t>Ndufb10</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.3409992633256191</v>
+        <v>-0.2896488641274081</v>
       </c>
       <c r="D26">
-        <v>0.04492372637598087</v>
+        <v>0.00964493364492745</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aamp</t>
+          <t>Ddx58</t>
         </is>
       </c>
       <c r="C27">
-        <v>-0.2786563266807697</v>
+        <v>2.686566402194582</v>
       </c>
       <c r="D27">
-        <v>0.0470288565669572</v>
+        <v>0.00892715136478792</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tubb4b</t>
+          <t>Cox6a1</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.4157445218833072</v>
+        <v>-0.4034218477138557</v>
       </c>
       <c r="D28">
-        <v>0.0392692595590252</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Helz2</t>
+          <t>Uqcrq</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.8946948549623319</v>
+        <v>-0.357578785565913</v>
       </c>
       <c r="D29">
-        <v>0.01506999081437321</v>
+        <v>0.01253791012803849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bst2</t>
+          <t>Rpl29</t>
         </is>
       </c>
       <c r="C30">
-        <v>1.567896224930968</v>
+        <v>-0.3666293643690085</v>
       </c>
       <c r="D30">
-        <v>0.01557323154944889</v>
+        <v>0.04565313349942448</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Atp6v1d</t>
+          <t>Rpl23a</t>
         </is>
       </c>
       <c r="C31">
-        <v>-0.3045465579884751</v>
+        <v>-0.3469650158918668</v>
       </c>
       <c r="D31">
-        <v>0.03277896193032409</v>
+        <v>0.01741509362325269</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32">
+        <v>3</v>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ddrgk1</t>
+          <t>Rpl18</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.2907483741436852</v>
+        <v>-0.34083943617731</v>
       </c>
       <c r="D32">
-        <v>0.01952864849493658</v>
+        <v>0.02684755218342155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mmp14</t>
+          <t>Rpl34</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.6747870700246724</v>
+        <v>-0.3944236043809506</v>
       </c>
       <c r="D33">
-        <v>0.0008689191171007392</v>
+        <v>0.04546639833373871</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34">
+        <v>2</v>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eif2b5</t>
+          <t>mt-Nd6</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.3102011649719741</v>
+        <v>0.6616392960129375</v>
       </c>
       <c r="D34">
-        <v>0.03277896193032409</v>
+        <v>0.04580293991246836</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fam162a</t>
+          <t>Rplp0</t>
         </is>
       </c>
       <c r="C35">
-        <v>-0.405578281898915</v>
+        <v>-0.3982893689825131</v>
       </c>
       <c r="D35">
-        <v>0.03782848333496932</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wnt5a</t>
+          <t>Rpl13a</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.5355406741566442</v>
+        <v>-0.4693569324656295</v>
       </c>
       <c r="D36">
-        <v>0.03900016812929496</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zcrb1</t>
+          <t>Gm3244</t>
         </is>
       </c>
       <c r="C37">
-        <v>-0.2506771056393453</v>
+        <v>-0.6110971568144076</v>
       </c>
       <c r="D37">
-        <v>0.0305058511313818</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mylk</t>
+          <t>Uba52</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3717166871213346</v>
+        <v>-0.3409992633256191</v>
       </c>
       <c r="D38">
-        <v>0.03567620661067988</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39">
+        <v>4</v>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kpna1</t>
+          <t>Rpl41</t>
         </is>
       </c>
       <c r="C39">
-        <v>-0.3334593595642131</v>
+        <v>-0.3731636487316165</v>
       </c>
       <c r="D39">
-        <v>0.03095961807620126</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40">
+        <v>4</v>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pcdhga8</t>
+          <t>Egln1</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.96123955872926</v>
+        <v>-0.644887613788194</v>
       </c>
       <c r="D40">
-        <v>0.03477815040811612</v>
+        <v>0.00199135996115129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eif2ak2</t>
+          <t>Epn1</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.7643701441847944</v>
+        <v>-0.4513605322798427</v>
       </c>
       <c r="D41">
-        <v>0.04803781147378225</v>
+        <v>0.04156990062621944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tcf7l2</t>
+          <t>Hras</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.3168662211265155</v>
+        <v>-0.4504025519597202</v>
       </c>
       <c r="D42">
-        <v>0.04743949790724527</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Podxl</t>
+          <t>Psmb9</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.5766279577967081</v>
+        <v>1.459191505035938</v>
       </c>
       <c r="D43">
-        <v>0.04580293991246836</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Eef1b2</t>
+          <t>Psmb8</t>
         </is>
       </c>
       <c r="C44">
-        <v>-0.3544116078903323</v>
+        <v>1.636845627770704</v>
       </c>
       <c r="D44">
-        <v>0.0305058511313818</v>
+        <v>0.0048111077919458</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>3</v>
-      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Xrn2</t>
+          <t>Pml</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.4186480873016118</v>
+        <v>0.7261306926495501</v>
       </c>
       <c r="D45">
-        <v>0.03531868810479954</v>
+        <v>0.02211292208203279</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46">
+        <v>15</v>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Slc6a9</t>
+          <t>Psmd4</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.4103229934610335</v>
+        <v>-0.2648123386640706</v>
       </c>
       <c r="D46">
-        <v>0.0363397162219637</v>
+        <v>0.02355970558509391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kmt2e</t>
+          <t>Aamp</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.3154735300697111</v>
+        <v>-0.2786563266807697</v>
       </c>
       <c r="D47">
-        <v>0.00253403748708825</v>
+        <v>0.0470288565669572</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fip1l1</t>
+          <t>Tubb4b</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.2734748506297395</v>
+        <v>-0.4157445218833072</v>
       </c>
       <c r="D48">
-        <v>0.00459294254044591</v>
+        <v>0.0392692595590252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Srsf9</t>
+          <t>Helz2</t>
         </is>
       </c>
       <c r="C49">
-        <v>-0.3422315622636333</v>
+        <v>0.8946948549623319</v>
       </c>
       <c r="D49">
-        <v>0.04492372637598087</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Erp29</t>
+          <t>Phc3</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.5185636075043087</v>
+        <v>0.2760633706216254</v>
       </c>
       <c r="D50">
-        <v>0.04381181348338659</v>
+        <v>0.02941351822666509</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51">
+        <v>1</v>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Frmd4b</t>
+          <t>Slfn4</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.3736441300611051</v>
+        <v>3.931006667577521</v>
       </c>
       <c r="D51">
-        <v>0.00936655097172516</v>
+        <v>0.02353655028589543</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52">
+        <v>12</v>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Arl8b</t>
+          <t>Mmp14</t>
         </is>
       </c>
       <c r="C52">
-        <v>-0.2456727984052809</v>
+        <v>0.6747870700246724</v>
       </c>
       <c r="D52">
-        <v>0.03477815040811612</v>
+        <v>0.0008689191171007392</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>3</v>
-      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pdcd5</t>
+          <t>Mien1</t>
         </is>
       </c>
       <c r="C53">
-        <v>-0.3122282208929471</v>
+        <v>-0.410080110334377</v>
       </c>
       <c r="D53">
-        <v>0.0305058511313818</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>4</v>
-      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Egln1</t>
+          <t>Arrdc2</t>
         </is>
       </c>
       <c r="C54">
-        <v>-0.644887613788194</v>
+        <v>-0.9370872899338036</v>
       </c>
       <c r="D54">
-        <v>0.00199135996115129</v>
+        <v>0.00579852748875405</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>14</v>
-      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rbm5</t>
+          <t>Eif2b5</t>
         </is>
       </c>
       <c r="C55">
-        <v>-0.3292746056845106</v>
+        <v>-0.3102011649719741</v>
       </c>
       <c r="D55">
-        <v>0.00998114484854677</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Fam162a</t>
         </is>
       </c>
       <c r="C56">
-        <v>-4.566552261618236</v>
+        <v>-0.405578281898915</v>
       </c>
       <c r="D56">
-        <v>0.04632659953584023</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="57">
+      <c r="A57">
+        <v>11</v>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Abi3bp</t>
+          <t>Ppp1cc</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.6188485596545618</v>
+        <v>-0.3359145435862895</v>
       </c>
       <c r="D57">
-        <v>0.04826118478868797</v>
+        <v>0.00429779987027545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Isg15</t>
+          <t>Pgam1</t>
         </is>
       </c>
       <c r="C58">
-        <v>3.858134757511314</v>
+        <v>-0.3203020860636794</v>
       </c>
       <c r="D58">
-        <v>0.02577197745126051</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pml</t>
+          <t>Ypel2</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.7261306926495501</v>
+        <v>0.4790995488285016</v>
       </c>
       <c r="D59">
-        <v>0.02211292208203279</v>
+        <v>0.01902096648426887</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>13</v>
-      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apbb1</t>
+          <t>Tmem160</t>
         </is>
       </c>
       <c r="C60">
-        <v>-1.335553206046667</v>
+        <v>-0.7785598149513265</v>
       </c>
       <c r="D60">
-        <v>0.03474960898356018</v>
+        <v>0.009307550149273969</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>1</v>
-      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ddx58</t>
+          <t>Ccdc59</t>
         </is>
       </c>
       <c r="C61">
-        <v>2.686566402194582</v>
+        <v>-0.3882599464528771</v>
       </c>
       <c r="D61">
-        <v>0.00892715136478792</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Snrnp25</t>
+          <t>Cmpk2</t>
         </is>
       </c>
       <c r="C62">
-        <v>-0.6929074624878369</v>
+        <v>5.169713885372579</v>
       </c>
       <c r="D62">
-        <v>0.02523106012812359</v>
+        <v>0.0020092196556229</v>
       </c>
     </row>
     <row r="63">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Leo1</t>
+          <t>Rsad2</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.2835620892259628</v>
+        <v>4.950718050006488</v>
       </c>
       <c r="D63">
-        <v>0.0408380183998133</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Irgm1</t>
+          <t>2010107E04Rik</t>
         </is>
       </c>
       <c r="C64">
-        <v>3.226458451204619</v>
+        <v>-0.7277222812200324</v>
       </c>
       <c r="D64">
-        <v>0.00964493364492745</v>
+        <v>1.894832369954323e-12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chchd10</t>
+          <t>Btf3</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.4182556786551846</v>
+        <v>-0.3174481279190326</v>
       </c>
       <c r="D65">
-        <v>0.00676588040493993</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fzd4</t>
+          <t>Ppif</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.4122753828831323</v>
+        <v>-0.550066237138701</v>
       </c>
       <c r="D66">
-        <v>0.04492372637598087</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Commd1</t>
+          <t>Wnt5a</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.3404046329767973</v>
+        <v>0.5355406741566442</v>
       </c>
       <c r="D67">
-        <v>0.00470179753107738</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zfp622</t>
+          <t>Zcrb1</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.4793103837750753</v>
+        <v>-0.2506771056393453</v>
       </c>
       <c r="D68">
-        <v>0.02242589890025613</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>1</v>
-      </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tpt1</t>
+          <t>Muc13</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.4365735859959968</v>
+        <v>1.743861683319563</v>
       </c>
       <c r="D69">
-        <v>0.00244312273070854</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70">
+        <v>9</v>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ei24</t>
+          <t>Mylk</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.66004168836452</v>
+        <v>0.3717166871213346</v>
       </c>
       <c r="D70">
-        <v>0.0005449586332035287</v>
+        <v>0.03567620661067988</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>8</v>
-      </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Suds3</t>
+          <t>Kpna1</t>
         </is>
       </c>
       <c r="C71">
-        <v>-0.3775815064574756</v>
+        <v>-0.3334593595642131</v>
       </c>
       <c r="D71">
-        <v>0.02331852868602164</v>
+        <v>0.03095961807620126</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>3</v>
-      </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rplp0</t>
+          <t>1110004E09Rik</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.3982893689825131</v>
+        <v>-0.4053128573475651</v>
       </c>
       <c r="D72">
-        <v>0.02211292208203279</v>
+        <v>0.01952864849493658</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>1</v>
-      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Igtp</t>
+          <t>Pcdhga8</t>
         </is>
       </c>
       <c r="C73">
-        <v>3.273759088560355</v>
+        <v>0.96123955872926</v>
       </c>
       <c r="D73">
-        <v>0.00470179753107738</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fzd10</t>
+          <t>Krt7</t>
         </is>
       </c>
       <c r="C74">
-        <v>-1.776297270601178</v>
+        <v>-4.402773048584626</v>
       </c>
       <c r="D74">
-        <v>0.0305058511313818</v>
+        <v>0.01791268933044461</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>14</v>
-      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ubl5</t>
+          <t>Igfbp6</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.377251855112088</v>
+        <v>-2.915742770200416</v>
       </c>
       <c r="D75">
-        <v>0.01557323154944889</v>
+        <v>0.0260681819242742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Myl6</t>
+          <t>Bsg</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.6309395807521748</v>
+        <v>-0.3945204111180863</v>
       </c>
       <c r="D76">
-        <v>0.00244312273070854</v>
+        <v>0.0001605215023865275</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <v>1</v>
-      </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Slfn4</t>
+          <t>Lpin2</t>
         </is>
       </c>
       <c r="C77">
-        <v>3.931006667577521</v>
+        <v>0.6227466474484258</v>
       </c>
       <c r="D77">
-        <v>0.02353655028589543</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78">
+        <v>20</v>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mien1</t>
+          <t>Xdh</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.410080110334377</v>
+        <v>1.184745208135283</v>
       </c>
       <c r="D78">
-        <v>0.0363397162219637</v>
+        <v>0.0009145016975501976</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79">
+        <v>7</v>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Arrdc2</t>
+          <t>Brd2</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.9370872899338036</v>
+        <v>-0.378658808324318</v>
       </c>
       <c r="D79">
-        <v>0.00579852748875405</v>
+        <v>0.00196730658717667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rps11</t>
+          <t>Tap2</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.423684419793032</v>
+        <v>0.8173454170771249</v>
       </c>
       <c r="D80">
-        <v>0.04401564446105166</v>
+        <v>0.03315812193283362</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ppp1cc</t>
+          <t>Drap1</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.3359145435862895</v>
+        <v>-0.320808312859571</v>
       </c>
       <c r="D81">
-        <v>0.00429779987027545</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rps9</t>
+          <t>Tcf7l2</t>
         </is>
       </c>
       <c r="C82">
-        <v>-0.3778846426156845</v>
+        <v>0.3168662211265155</v>
       </c>
       <c r="D82">
-        <v>0.03488258414832022</v>
+        <v>0.04743949790724527</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rplp1</t>
+          <t>Mrpl43</t>
         </is>
       </c>
       <c r="C83">
-        <v>-0.7100741567090141</v>
+        <v>-0.3868067495883763</v>
       </c>
       <c r="D83">
-        <v>0.0009196851533285508</v>
+        <v>0.01551411003627931</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Atp5e</t>
+          <t>Podxl</t>
         </is>
       </c>
       <c r="C84">
-        <v>-0.372562968980597</v>
+        <v>0.5766279577967081</v>
       </c>
       <c r="D84">
-        <v>0.04815621131608248</v>
+        <v>0.04580293991246836</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sec11a</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>-0.2664775512079659</v>
+      </c>
+      <c r="D85">
+        <v>0.04412449928022861</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
         <v>3</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Rpl19</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>-0.4761544188765737</v>
-      </c>
-      <c r="D85">
-        <v>0.0003654438157078666</v>
-      </c>
-    </row>
-    <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ypel2</t>
+          <t>Eef1b2</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.4790995488285016</v>
+        <v>-0.3544116078903323</v>
       </c>
       <c r="D86">
-        <v>0.01902096648426887</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87">
+        <v>1</v>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tmem160</t>
+          <t>Sp100</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.7785598149513265</v>
+        <v>2.819176062041834</v>
       </c>
       <c r="D87">
-        <v>0.009307550149273969</v>
+        <v>0.01691257625954287</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88">
+        <v>3</v>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ccdc59</t>
+          <t>Xrn2</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.3882599464528771</v>
+        <v>0.4186480873016118</v>
       </c>
       <c r="D88">
-        <v>0.00936655097172516</v>
+        <v>0.03531868810479954</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cmpk2</t>
+          <t>Zbp1</t>
         </is>
       </c>
       <c r="C89">
-        <v>5.169713885372579</v>
+        <v>3.963083262548574</v>
       </c>
       <c r="D89">
-        <v>0.0020092196556229</v>
+        <v>0.01444076571243263</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rsad2</t>
+          <t>Supt20</t>
         </is>
       </c>
       <c r="C90">
-        <v>4.950718050006488</v>
+        <v>0.4125666925108614</v>
       </c>
       <c r="D90">
-        <v>0.0009196851533285508</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2010107E04Rik</t>
+          <t>Ifi44</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.7277222812200324</v>
+        <v>3.794775234367702</v>
       </c>
       <c r="D91">
-        <v>1.894832369954323e-12</v>
+        <v>0.03550524067001975</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
-        <v>3</v>
-      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Btf3</t>
+          <t>Clca1</t>
         </is>
       </c>
       <c r="C92">
-        <v>-0.3174481279190326</v>
+        <v>-3.239407927377884</v>
       </c>
       <c r="D92">
-        <v>0.00936655097172516</v>
+        <v>0.03900016812929496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ppif</t>
+          <t>Gbp3</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.550066237138701</v>
+        <v>2.762792984882857</v>
       </c>
       <c r="D93">
-        <v>0.03277896193032409</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Atp5j</t>
+          <t>Gbp2</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.4796261666086762</v>
+        <v>3.152445412196215</v>
       </c>
       <c r="D94">
-        <v>0.0005449586332035287</v>
+        <v>0.00505594871683344</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
-        <v>2</v>
-      </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Atp5o</t>
+          <t>Slc6a9</t>
         </is>
       </c>
       <c r="C95">
-        <v>-0.2763555813100562</v>
+        <v>0.4103229934610335</v>
       </c>
       <c r="D95">
-        <v>0.0009145016975501976</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>1110004E09Rik</t>
+          <t>Pithd1</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.4053128573475651</v>
+        <v>-0.4802159970439303</v>
       </c>
       <c r="D96">
-        <v>0.01952864849493658</v>
+        <v>0.02514286284711538</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Krt7</t>
+          <t>Necap2</t>
         </is>
       </c>
       <c r="C97">
-        <v>-4.402773048584626</v>
+        <v>-0.4289970041593343</v>
       </c>
       <c r="D97">
-        <v>0.01791268933044461</v>
+        <v>0.03096086714413687</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98">
+        <v>2</v>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Igfbp6</t>
+          <t>Tomm7</t>
         </is>
       </c>
       <c r="C98">
-        <v>-2.915742770200416</v>
+        <v>-0.418341188169861</v>
       </c>
       <c r="D98">
-        <v>0.0260681819242742</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bsg</t>
+          <t>Kmt2e</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.3945204111180863</v>
+        <v>0.3154735300697111</v>
       </c>
       <c r="D99">
-        <v>0.0001605215023865275</v>
+        <v>0.00253403748708825</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100">
+        <v>11</v>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lpin2</t>
+          <t>Fip1l1</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.6227466474484258</v>
+        <v>-0.2734748506297395</v>
       </c>
       <c r="D100">
-        <v>0.03900016812929496</v>
+        <v>0.00459294254044591</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Xdh</t>
+          <t>Srsf9</t>
         </is>
       </c>
       <c r="C101">
-        <v>1.184745208135283</v>
+        <v>-0.3422315622636333</v>
       </c>
       <c r="D101">
-        <v>0.0009145016975501976</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Brd2</t>
+          <t>Oasl2</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.378658808324318</v>
+        <v>2.608403847115867</v>
       </c>
       <c r="D102">
-        <v>0.00196730658717667</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tap2</t>
+          <t>Erp29</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.8173454170771249</v>
+        <v>-0.5185636075043087</v>
       </c>
       <c r="D103">
-        <v>0.03315812193283362</v>
+        <v>0.04381181348338659</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Drap1</t>
+          <t>Herc6</t>
         </is>
       </c>
       <c r="C104">
-        <v>-0.320808312859571</v>
+        <v>3.431683799039823</v>
       </c>
       <c r="D104">
-        <v>0.0305058511313818</v>
+        <v>0.00940986749948737</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <v>2</v>
-      </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mrpl43</t>
+          <t>Frmd4b</t>
         </is>
       </c>
       <c r="C105">
-        <v>-0.3868067495883763</v>
+        <v>0.3736441300611051</v>
       </c>
       <c r="D105">
-        <v>0.01551411003627931</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="106">
@@ -1986,59 +1992,56 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rps26</t>
+          <t>Abtb1</t>
         </is>
       </c>
       <c r="C106">
-        <v>-0.2798202764637763</v>
+        <v>-0.5557725679080386</v>
       </c>
       <c r="D106">
-        <v>0.04257024760722164</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
-        <v>3</v>
-      </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rplp2</t>
+          <t>Arl8b</t>
         </is>
       </c>
       <c r="C107">
-        <v>-0.3772447293654123</v>
+        <v>-0.2456727984052809</v>
       </c>
       <c r="D107">
-        <v>0.02211292208203279</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="108">
+      <c r="A108">
+        <v>1</v>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sec11a</t>
+          <t>Usp18</t>
         </is>
       </c>
       <c r="C108">
-        <v>-0.2664775512079659</v>
+        <v>2.977766531879115</v>
       </c>
       <c r="D108">
-        <v>0.04412449928022861</v>
+        <v>0.01741509362325269</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109">
-        <v>1</v>
-      </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sp100</t>
+          <t>Mlf2</t>
         </is>
       </c>
       <c r="C109">
-        <v>2.819176062041834</v>
+        <v>-0.4152387952676184</v>
       </c>
       <c r="D109">
-        <v>0.01691257625954287</v>
+        <v>0.0260681819242742</v>
       </c>
     </row>
     <row r="110">
@@ -2047,30 +2050,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Zbp1</t>
+          <t>Pdcd5</t>
         </is>
       </c>
       <c r="C110">
-        <v>3.963083262548574</v>
+        <v>-0.3122282208929471</v>
       </c>
       <c r="D110">
-        <v>0.01444076571243263</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Supt20</t>
+          <t>Hpx</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.4125666925108614</v>
+        <v>-2.157875401550138</v>
       </c>
       <c r="D111">
-        <v>0.03782848333496932</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="112">
@@ -2079,59 +2082,59 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ifi44</t>
+          <t>Trim30a</t>
         </is>
       </c>
       <c r="C112">
-        <v>3.794775234367702</v>
+        <v>3.137379120129999</v>
       </c>
       <c r="D112">
-        <v>0.03550524067001975</v>
+        <v>0.00936524164131753</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113">
-        <v>3</v>
-      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Rps3a1</t>
+          <t>Slc9a9</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.2562178795696486</v>
+        <v>1.143327141501091</v>
       </c>
       <c r="D113">
-        <v>0.0363397162219637</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="114">
+      <c r="A114">
+        <v>13</v>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Clca1</t>
+          <t>Aplp2</t>
         </is>
       </c>
       <c r="C114">
-        <v>-3.239407927377884</v>
+        <v>-0.3521921377677826</v>
       </c>
       <c r="D114">
-        <v>0.03900016812929496</v>
+        <v>0.02289688513792529</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gbp3</t>
+          <t>Rbm5</t>
         </is>
       </c>
       <c r="C115">
-        <v>2.762792984882857</v>
+        <v>-0.3292746056845106</v>
       </c>
       <c r="D115">
-        <v>0.01506999081437321</v>
+        <v>0.00998114484854677</v>
       </c>
     </row>
     <row r="116">
@@ -2140,229 +2143,223 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Gbp2</t>
+          <t>Lgals3bp</t>
         </is>
       </c>
       <c r="C116">
-        <v>3.152445412196215</v>
+        <v>0.7404154891407403</v>
       </c>
       <c r="D116">
-        <v>0.00505594871683344</v>
+        <v>0.00579852748875405</v>
       </c>
     </row>
     <row r="117">
+      <c r="A117">
+        <v>1</v>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pithd1</t>
+          <t>Parp14</t>
         </is>
       </c>
       <c r="C117">
-        <v>-0.4802159970439303</v>
+        <v>1.858188748004512</v>
       </c>
       <c r="D117">
-        <v>0.02514286284711538</v>
+        <v>0.03096086714413687</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Necap2</t>
+          <t>Ifit1</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.4289970041593343</v>
+        <v>5.050350004744043</v>
       </c>
       <c r="D118">
-        <v>0.03096086714413687</v>
+        <v>0.00232915382812913</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tomm7</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.418341188169861</v>
+        <v>-4.566552261618236</v>
       </c>
       <c r="D119">
-        <v>0.00562583898175416</v>
+        <v>0.04632659953584023</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120">
-        <v>1</v>
-      </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Oasl2</t>
+          <t>Ccdc186</t>
         </is>
       </c>
       <c r="C120">
-        <v>2.608403847115867</v>
+        <v>-0.3054867229600383</v>
       </c>
       <c r="D120">
-        <v>0.03277896193032409</v>
+        <v>0.04190350078936811</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121">
-        <v>1</v>
-      </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Herc6</t>
+          <t>Abi3bp</t>
         </is>
       </c>
       <c r="C121">
-        <v>3.431683799039823</v>
+        <v>0.6188485596545618</v>
       </c>
       <c r="D121">
-        <v>0.00940986749948737</v>
+        <v>0.04826118478868797</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Abtb1</t>
+          <t>H2-Q4</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.5557725679080386</v>
+        <v>1.467751011665882</v>
       </c>
       <c r="D122">
+        <v>0.0009145016975501976</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>5031439G07Rik</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>-0.3408493752554035</v>
+      </c>
+      <c r="D123">
+        <v>0.03315812193283362</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Hist1h1c</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>-0.7682067311205484</v>
+      </c>
+      <c r="D124">
         <v>0.0363397162219637</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Usp18</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>2.977766531879115</v>
-      </c>
-      <c r="D123">
-        <v>0.01741509362325269</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mlf2</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>-0.4152387952676184</v>
-      </c>
-      <c r="D124">
-        <v>0.0260681819242742</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hpx</t>
+          <t>Agr3</t>
         </is>
       </c>
       <c r="C125">
-        <v>-2.157875401550138</v>
+        <v>-3.105888275324154</v>
       </c>
       <c r="D125">
-        <v>0.00470179753107738</v>
+        <v>0.02974800127151333</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126">
-        <v>1</v>
-      </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Trim30a</t>
+          <t>Igsf10</t>
         </is>
       </c>
       <c r="C126">
-        <v>3.137379120129999</v>
+        <v>0.6624135654427014</v>
       </c>
       <c r="D126">
-        <v>0.00936524164131753</v>
+        <v>0.01162913763080104</v>
       </c>
     </row>
     <row r="127">
+      <c r="A127">
+        <v>13</v>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Slc9a9</t>
+          <t>Apbb1</t>
         </is>
       </c>
       <c r="C127">
-        <v>1.143327141501091</v>
+        <v>-1.335553206046667</v>
       </c>
       <c r="D127">
         <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128">
-        <v>1</v>
-      </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tlr3</t>
+          <t>Prkcdbp</t>
         </is>
       </c>
       <c r="C128">
-        <v>1.20123481230403</v>
+        <v>-1.212505236786419</v>
       </c>
       <c r="D128">
-        <v>0.03522641241103515</v>
+        <v>0.02353655028589543</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Aplp2</t>
+          <t>Jmjd1c</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.3521921377677826</v>
+        <v>0.3561031967675924</v>
       </c>
       <c r="D129">
-        <v>0.02289688513792529</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lgals3bp</t>
+          <t>H2afz</t>
         </is>
       </c>
       <c r="C130">
-        <v>0.7404154891407403</v>
+        <v>-0.3812625226317242</v>
       </c>
       <c r="D130">
-        <v>0.00579852748875405</v>
+        <v>0.03744843589187449</v>
       </c>
     </row>
     <row r="131">
@@ -2371,570 +2368,576 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Parp14</t>
+          <t>Ddx60</t>
         </is>
       </c>
       <c r="C131">
-        <v>1.858188748004512</v>
+        <v>2.786283055468535</v>
       </c>
       <c r="D131">
-        <v>0.03096086714413687</v>
+        <v>0.01791268933044461</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132">
-        <v>1</v>
-      </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ifit1</t>
+          <t>Osbpl7</t>
         </is>
       </c>
       <c r="C132">
-        <v>5.050350004744043</v>
+        <v>0.5888986194685472</v>
       </c>
       <c r="D132">
-        <v>0.00232915382812913</v>
+        <v>0.01506999081437321</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Tnfsf10</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>1.49833840233693</v>
+      </c>
+      <c r="D133">
+        <v>0.02420117856320826</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Znfx1</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>1.279043758772737</v>
+      </c>
+      <c r="D134">
+        <v>0.00579852748875405</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
         <v>2</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Atp5h</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>-0.4362669287304909</v>
-      </c>
-      <c r="D133">
-        <v>0.0001818710939635323</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Ccdc186</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>-0.3054867229600383</v>
-      </c>
-      <c r="D134">
-        <v>0.04190350078936811</v>
-      </c>
-    </row>
-    <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>5031439G07Rik</t>
+          <t>Mrps6</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.3408493752554035</v>
+        <v>-0.6131168956067455</v>
       </c>
       <c r="D135">
-        <v>0.03315812193283362</v>
+        <v>0.01299851499152782</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hist1h1c</t>
+          <t>Trim14</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.7682067311205484</v>
+        <v>1.483176225400203</v>
       </c>
       <c r="D136">
-        <v>0.0363397162219637</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137">
-        <v>18</v>
-      </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Agr3</t>
+          <t>Gbp7</t>
         </is>
       </c>
       <c r="C137">
-        <v>-3.105888275324154</v>
+        <v>2.217048719144074</v>
       </c>
       <c r="D137">
-        <v>0.02974800127151333</v>
+        <v>0.00998114484854677</v>
       </c>
     </row>
     <row r="138">
+      <c r="A138">
+        <v>21</v>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Igsf10</t>
+          <t>Snrnp25</t>
         </is>
       </c>
       <c r="C138">
-        <v>0.6624135654427014</v>
+        <v>-0.6929074624878369</v>
       </c>
       <c r="D138">
-        <v>0.01162913763080104</v>
+        <v>0.02523106012812359</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Prkcdbp</t>
+          <t>Tet2</t>
         </is>
       </c>
       <c r="C139">
-        <v>-1.212505236786419</v>
+        <v>0.3228517453352341</v>
       </c>
       <c r="D139">
-        <v>0.02353655028589543</v>
+        <v>0.01444076571243263</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Phc3</t>
+          <t>2310036O22Rik</t>
         </is>
       </c>
       <c r="C140">
-        <v>0.2760633706216254</v>
+        <v>-0.3953865629371426</v>
       </c>
       <c r="D140">
-        <v>0.02941351822666509</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jmjd1c</t>
+          <t>Rptn</t>
         </is>
       </c>
       <c r="C141">
-        <v>0.3561031967675924</v>
+        <v>-3.210428537725509</v>
       </c>
       <c r="D141">
-        <v>0.0363397162219637</v>
+        <v>0.0020092196556229</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>H2afz</t>
+          <t>Arsb</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.3812625226317242</v>
+        <v>0.494235809677497</v>
       </c>
       <c r="D142">
-        <v>0.03744843589187449</v>
+        <v>0.00940986749948737</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ddx60</t>
+          <t>S100a14</t>
         </is>
       </c>
       <c r="C143">
-        <v>2.786283055468535</v>
+        <v>-1.000235229431388</v>
       </c>
       <c r="D143">
-        <v>0.01791268933044461</v>
+        <v>0.03892332658775081</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Osbpl7</t>
+          <t>S100a13</t>
         </is>
       </c>
       <c r="C144">
-        <v>0.5888986194685472</v>
+        <v>-1.209567788499966</v>
       </c>
       <c r="D144">
-        <v>0.01506999081437321</v>
+        <v>0.00482864718899447</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <v>2</v>
-      </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Atp5j2</t>
+          <t>Leo1</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.3016750510943599</v>
+        <v>-0.2835620892259628</v>
       </c>
       <c r="D145">
-        <v>0.03815898389959085</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tnfsf10</t>
+          <t>Shfm1</t>
         </is>
       </c>
       <c r="C146">
-        <v>1.49833840233693</v>
+        <v>-0.3908345153094612</v>
       </c>
       <c r="D146">
-        <v>0.02420117856320826</v>
+        <v>0.0408380183998133</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147">
-        <v>1</v>
-      </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Znfx1</t>
+          <t>Npb</t>
         </is>
       </c>
       <c r="C147">
-        <v>1.279043758772737</v>
+        <v>-1.106478518549228</v>
       </c>
       <c r="D147">
-        <v>0.00579852748875405</v>
+        <v>0.0315850802985153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mrps6</t>
+          <t>Ifit2</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.6131168956067455</v>
+        <v>2.816999298429498</v>
       </c>
       <c r="D148">
-        <v>0.01299851499152782</v>
+        <v>0.01346751797841814</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149">
-        <v>1</v>
-      </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Trim14</t>
+          <t>Patl1</t>
         </is>
       </c>
       <c r="C149">
-        <v>1.483176225400203</v>
+        <v>0.4072877540058924</v>
       </c>
       <c r="D149">
-        <v>0.03477815040811612</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Gbp7</t>
+          <t>Tmem229b</t>
         </is>
       </c>
       <c r="C150">
-        <v>2.217048719144074</v>
+        <v>1.368115044003816</v>
       </c>
       <c r="D150">
-        <v>0.00998114484854677</v>
+        <v>0.0181589895248647</v>
       </c>
     </row>
     <row r="151">
+      <c r="A151">
+        <v>19</v>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tet2</t>
+          <t>Scand1</t>
         </is>
       </c>
       <c r="C151">
-        <v>0.3228517453352341</v>
+        <v>-0.6665737782383648</v>
       </c>
       <c r="D151">
-        <v>0.01444076571243263</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2310036O22Rik</t>
+          <t>Bst2</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.3953865629371426</v>
+        <v>1.567896224930968</v>
       </c>
       <c r="D152">
-        <v>0.0305058511313818</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rptn</t>
+          <t>Irgm1</t>
         </is>
       </c>
       <c r="C153">
-        <v>-3.210428537725509</v>
+        <v>3.226458451204619</v>
       </c>
       <c r="D153">
-        <v>0.0020092196556229</v>
+        <v>0.00964493364492745</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>S100a14</t>
+          <t>Rnf152</t>
         </is>
       </c>
       <c r="C154">
-        <v>-1.000235229431388</v>
+        <v>0.4654245597123298</v>
       </c>
       <c r="D154">
-        <v>0.03892332658775081</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="155">
+      <c r="A155">
+        <v>2</v>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>S100a13</t>
+          <t>Chchd10</t>
         </is>
       </c>
       <c r="C155">
-        <v>-1.209567788499966</v>
+        <v>-0.4182556786551846</v>
       </c>
       <c r="D155">
-        <v>0.00482864718899447</v>
+        <v>0.00676588040493993</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Shfm1</t>
+          <t>Fzd4</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.3908345153094612</v>
+        <v>0.4122753828831323</v>
       </c>
       <c r="D156">
-        <v>0.0408380183998133</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="157">
+      <c r="A157">
+        <v>10</v>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Npb</t>
+          <t>Krt78</t>
         </is>
       </c>
       <c r="C157">
-        <v>-1.106478518549228</v>
+        <v>-1.300843003240735</v>
       </c>
       <c r="D157">
-        <v>0.0315850802985153</v>
+        <v>0.01801151305031944</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ifit2</t>
+          <t>Minos1</t>
         </is>
       </c>
       <c r="C158">
-        <v>2.816999298429498</v>
+        <v>-0.2882896912104574</v>
       </c>
       <c r="D158">
-        <v>0.01346751797841814</v>
+        <v>0.01162913763080104</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Patl1</t>
+          <t>Trim15</t>
         </is>
       </c>
       <c r="C159">
-        <v>0.4072877540058924</v>
+        <v>1.596278381755023</v>
       </c>
       <c r="D159">
-        <v>0.0305058511313818</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="160">
+      <c r="A160">
+        <v>17</v>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tmem229b</t>
+          <t>Commd1</t>
         </is>
       </c>
       <c r="C160">
-        <v>1.368115044003816</v>
+        <v>-0.3404046329767973</v>
       </c>
       <c r="D160">
-        <v>0.0181589895248647</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Scand1</t>
+          <t>Zfp622</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.6665737782383648</v>
+        <v>-0.4793103837750753</v>
       </c>
       <c r="D161">
-        <v>0.04257024760722164</v>
+        <v>0.02242589890025613</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Rnf152</t>
+          <t>Gan</t>
         </is>
       </c>
       <c r="C162">
-        <v>0.4654245597123298</v>
+        <v>-0.4831173352246635</v>
       </c>
       <c r="D162">
-        <v>0.03782848333496932</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Rpl29</t>
+          <t>H2-T24</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.3666293643690085</v>
+        <v>2.067757412963034</v>
       </c>
       <c r="D163">
-        <v>0.04565313349942448</v>
+        <v>0.02916021885191409</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Krt78</t>
+          <t>Iigp1</t>
         </is>
       </c>
       <c r="C164">
-        <v>-1.300843003240735</v>
+        <v>2.32803078298343</v>
       </c>
       <c r="D164">
-        <v>0.01801151305031944</v>
+        <v>0.00936655097172516</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Minos1</t>
+          <t>Fkbp2</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.2882896912104574</v>
+        <v>-0.3965013451313776</v>
       </c>
       <c r="D165">
-        <v>0.01162913763080104</v>
+        <v>0.04492372637598087</v>
       </c>
     </row>
     <row r="166">
+      <c r="A166">
+        <v>1</v>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Trim15</t>
+          <t>Trim30d</t>
         </is>
       </c>
       <c r="C166">
-        <v>1.596278381755023</v>
+        <v>3.477563723652379</v>
       </c>
       <c r="D166">
-        <v>0.0363397162219637</v>
+        <v>0.00324846829458325</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167">
-        <v>17</v>
-      </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Gan</t>
+          <t>Gm5431</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.4831173352246635</v>
+        <v>3.322311344183443</v>
       </c>
       <c r="D167">
-        <v>0.03477815040811612</v>
+        <v>0.03782848333496932</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>H2-T24</t>
+          <t>H2afj</t>
         </is>
       </c>
       <c r="C168">
-        <v>2.067757412963034</v>
+        <v>-0.7436045914685907</v>
       </c>
       <c r="D168">
-        <v>0.02916021885191409</v>
+        <v>7.588970384703425e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2943,162 +2946,153 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Iigp1</t>
+          <t>Tpt1</t>
         </is>
       </c>
       <c r="C169">
-        <v>2.32803078298343</v>
+        <v>-0.4365735859959968</v>
       </c>
       <c r="D169">
-        <v>0.00936655097172516</v>
+        <v>0.00244312273070854</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fkbp2</t>
+          <t>H2-Q7</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.3965013451313776</v>
+        <v>1.695135492302067</v>
       </c>
       <c r="D170">
-        <v>0.04492372637598087</v>
+        <v>0.01060929420345149</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171">
-        <v>1</v>
-      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Trim30d</t>
+          <t>Hist1h4c</t>
         </is>
       </c>
       <c r="C171">
-        <v>3.477563723652379</v>
+        <v>-0.7351454973211352</v>
       </c>
       <c r="D171">
-        <v>0.00324846829458325</v>
+        <v>0.03474960898356018</v>
       </c>
     </row>
     <row r="172">
+      <c r="A172">
+        <v>6</v>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Gm5431</t>
+          <t>B2m</t>
         </is>
       </c>
       <c r="C172">
-        <v>3.322311344183443</v>
+        <v>1.258444505816108</v>
       </c>
       <c r="D172">
+        <v>0.00239475167287818</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Arl1</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>-0.2725497014834007</v>
+      </c>
+      <c r="D173">
         <v>0.03782848333496932</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173">
-        <v>3</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Rpl23a</t>
-        </is>
-      </c>
-      <c r="C173">
-        <v>-0.3469650158918668</v>
-      </c>
-      <c r="D173">
-        <v>0.01741509362325269</v>
-      </c>
-    </row>
     <row r="174">
-      <c r="A174">
-        <v>3</v>
-      </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rpl18</t>
+          <t>Hist1h4d</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.34083943617731</v>
+        <v>-0.7242825220118058</v>
       </c>
       <c r="D174">
-        <v>0.02684755218342155</v>
+        <v>0.02242589890025613</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>H2afj</t>
+          <t>Ifit3b</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.7436045914685907</v>
+        <v>5.280249149498188</v>
       </c>
       <c r="D175">
-        <v>7.588970384703425e-06</v>
+        <v>0.0008689191171007392</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Hist1h4c</t>
+          <t>Fabp4</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.7351454973211352</v>
+        <v>-0.7423874041755378</v>
       </c>
       <c r="D176">
-        <v>0.03474960898356018</v>
+        <v>0.00329047477818517</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Arl1</t>
+          <t>Ei24</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.2725497014834007</v>
+        <v>-0.66004168836452</v>
       </c>
       <c r="D177">
-        <v>0.03782848333496932</v>
+        <v>0.0005449586332035287</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hist1h4d</t>
+          <t>2010109I03Rik</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.7242825220118058</v>
+        <v>-2.397517316288366</v>
       </c>
       <c r="D178">
-        <v>0.02242589890025613</v>
+        <v>0.03277896193032409</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179">
-        <v>3</v>
-      </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Rpl34</t>
+          <t>Nkx6-3</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.3944236043809506</v>
+        <v>-7.015542953881983</v>
       </c>
       <c r="D179">
-        <v>0.04546639833373871</v>
+        <v>0.00247545732367506</v>
       </c>
     </row>
     <row r="180">
@@ -3107,300 +3101,300 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ifit3b</t>
+          <t>Ifi27</t>
         </is>
       </c>
       <c r="C180">
-        <v>5.280249149498188</v>
+        <v>0.6688633984539523</v>
       </c>
       <c r="D180">
-        <v>0.0008689191171007392</v>
+        <v>0.009673264429131089</v>
       </c>
     </row>
     <row r="181">
+      <c r="A181">
+        <v>7</v>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Fabp4</t>
+          <t>Hist2h2aa1</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.7423874041755378</v>
+        <v>-0.3679593995787661</v>
       </c>
       <c r="D181">
-        <v>0.00329047477818517</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>2010109I03Rik</t>
+          <t>n-R5-8s1</t>
         </is>
       </c>
       <c r="C182">
-        <v>-2.397517316288366</v>
+        <v>1.046078690049043</v>
       </c>
       <c r="D182">
-        <v>0.03277896193032409</v>
+        <v>0.02289688513792529</v>
       </c>
     </row>
     <row r="183">
+      <c r="A183">
+        <v>16</v>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nkx6-3</t>
+          <t>Aurkaip1</t>
         </is>
       </c>
       <c r="C183">
-        <v>-7.015542953881983</v>
+        <v>-0.4687912218656131</v>
       </c>
       <c r="D183">
-        <v>0.00247545732367506</v>
+        <v>0.0363397162219637</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ifi27</t>
+          <t>Suds3</t>
         </is>
       </c>
       <c r="C184">
-        <v>0.6688633984539523</v>
+        <v>-0.3775815064574756</v>
       </c>
       <c r="D184">
-        <v>0.009673264429131089</v>
+        <v>0.02331852868602164</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Phf11d</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>1.817137857669323</v>
+      </c>
+      <c r="D185">
+        <v>0.02353655028589543</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ddrgk1</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>-0.2907483741436852</v>
+      </c>
+      <c r="D186">
+        <v>0.01952864849493658</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
         <v>7</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Hist2h2aa1</t>
-        </is>
-      </c>
-      <c r="C185">
-        <v>-0.3679593995787661</v>
-      </c>
-      <c r="D185">
-        <v>0.00470179753107738</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186">
-        <v>2</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>mt-Nd6</t>
-        </is>
-      </c>
-      <c r="C186">
-        <v>0.6616392960129375</v>
-      </c>
-      <c r="D186">
-        <v>0.04580293991246836</v>
-      </c>
-    </row>
-    <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>n-R5-8s1</t>
+          <t>Hist1h4m</t>
         </is>
       </c>
       <c r="C187">
-        <v>1.046078690049043</v>
+        <v>-1.00733077416072</v>
       </c>
       <c r="D187">
-        <v>0.02289688513792529</v>
+        <v>0.04257024760722164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Aurkaip1</t>
+          <t>4930438A08Rik</t>
         </is>
       </c>
       <c r="C188">
-        <v>-0.4687912218656131</v>
+        <v>-4.248675433928227</v>
       </c>
       <c r="D188">
-        <v>0.0363397162219637</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189">
-        <v>1</v>
-      </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Phf11d</t>
+          <t>9930111J21Rik2</t>
         </is>
       </c>
       <c r="C189">
-        <v>1.817137857669323</v>
+        <v>0.980455743324533</v>
       </c>
       <c r="D189">
-        <v>0.02353655028589543</v>
+        <v>0.01952864849493658</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Hist1h4m</t>
+          <t>Sp110</t>
         </is>
       </c>
       <c r="C190">
-        <v>-1.00733077416072</v>
+        <v>2.095991410146162</v>
       </c>
       <c r="D190">
-        <v>0.04257024760722164</v>
+        <v>0.008779509299285121</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rnf213</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>2.137166671871332</v>
+      </c>
+      <c r="D191">
+        <v>0.03477815040811612</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
         <v>2</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>4930438A08Rik</t>
-        </is>
-      </c>
-      <c r="C191">
-        <v>-4.248675433928227</v>
-      </c>
-      <c r="D191">
-        <v>0.01557323154944889</v>
-      </c>
-    </row>
-    <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>9930111J21Rik2</t>
+          <t>Chchd2</t>
         </is>
       </c>
       <c r="C192">
-        <v>0.980455743324533</v>
+        <v>-0.4112802965966461</v>
       </c>
       <c r="D192">
-        <v>0.01952864849493658</v>
+        <v>0.01408956698401393</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sp110</t>
+          <t>Srp54a</t>
         </is>
       </c>
       <c r="C193">
-        <v>2.095991410146162</v>
+        <v>0.9273840692554648</v>
       </c>
       <c r="D193">
-        <v>0.008779509299285121</v>
+        <v>0.03315812193283362</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Rnf213</t>
+          <t>H2-Q6</t>
         </is>
       </c>
       <c r="C194">
-        <v>2.137166671871332</v>
+        <v>2.102881237092282</v>
       </c>
       <c r="D194">
-        <v>0.03477815040811612</v>
+        <v>0.0017264301856411</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195">
-        <v>2</v>
-      </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Chchd2</t>
+          <t>AA474408</t>
         </is>
       </c>
       <c r="C195">
-        <v>-0.4112802965966461</v>
+        <v>1.15256381075751</v>
       </c>
       <c r="D195">
-        <v>0.01408956698401393</v>
+        <v>0.00129529992113023</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Srp54a</t>
+          <t>Nlrc5</t>
         </is>
       </c>
       <c r="C196">
-        <v>0.9273840692554648</v>
+        <v>3.208131522693819</v>
       </c>
       <c r="D196">
-        <v>0.03315812193283362</v>
+        <v>0.01661820551898223</v>
       </c>
     </row>
     <row r="197">
+      <c r="A197">
+        <v>1</v>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AA474408</t>
+          <t>Ifit3</t>
         </is>
       </c>
       <c r="C197">
-        <v>1.15256381075751</v>
+        <v>4.687161658924641</v>
       </c>
       <c r="D197">
-        <v>0.00129529992113023</v>
+        <v>0.0017264301856411</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198">
-        <v>3</v>
-      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Rpl13a</t>
+          <t>Gm23935</t>
         </is>
       </c>
       <c r="C198">
-        <v>-0.4693569324656295</v>
+        <v>0.8965572894429772</v>
       </c>
       <c r="D198">
-        <v>0.0305058511313818</v>
+        <v>0.00562583898175416</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199">
-        <v>1</v>
-      </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nlrc5</t>
+          <t>Gm24270</t>
         </is>
       </c>
       <c r="C199">
-        <v>3.208131522693819</v>
+        <v>0.7761475791155057</v>
       </c>
       <c r="D199">
-        <v>0.01661820551898223</v>
+        <v>0.04412449928022861</v>
       </c>
     </row>
     <row r="200">
@@ -3409,98 +3403,104 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ifit3</t>
+          <t>Igtp</t>
         </is>
       </c>
       <c r="C200">
-        <v>4.687161658924641</v>
+        <v>3.273759088560355</v>
       </c>
       <c r="D200">
-        <v>0.0017264301856411</v>
+        <v>0.00470179753107738</v>
       </c>
     </row>
     <row r="201">
+      <c r="A201">
+        <v>1</v>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Gm23935</t>
+          <t>Gm14446</t>
         </is>
       </c>
       <c r="C201">
-        <v>0.8965572894429772</v>
+        <v>4.458856104011836</v>
       </c>
       <c r="D201">
-        <v>0.00562583898175416</v>
+        <v>0.00129529992113023</v>
       </c>
     </row>
     <row r="202">
+      <c r="A202">
+        <v>1</v>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Gm24270</t>
+          <t>Gbp6</t>
         </is>
       </c>
       <c r="C202">
-        <v>0.7761475791155057</v>
+        <v>2.449694358766036</v>
       </c>
       <c r="D202">
-        <v>0.04412449928022861</v>
+        <v>0.03477815040811612</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203">
-        <v>1</v>
-      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Gm14446</t>
+          <t>Rpl19-ps11</t>
         </is>
       </c>
       <c r="C203">
-        <v>4.458856104011836</v>
+        <v>-0.4509671898583368</v>
       </c>
       <c r="D203">
-        <v>0.00129529992113023</v>
+        <v>0.00459294254044591</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Gbp6</t>
+          <t>Fzd10</t>
         </is>
       </c>
       <c r="C204">
-        <v>2.449694358766036</v>
+        <v>-1.776297270601178</v>
       </c>
       <c r="D204">
-        <v>0.03477815040811612</v>
+        <v>0.0305058511313818</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rpl19-ps11</t>
+          <t>Gm12250</t>
         </is>
       </c>
       <c r="C205">
-        <v>-0.4509671898583368</v>
+        <v>4.403195032825928</v>
       </c>
       <c r="D205">
-        <v>0.00459294254044591</v>
+        <v>0.0176357401032901</v>
       </c>
     </row>
     <row r="206">
+      <c r="A206">
+        <v>14</v>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Gm12250</t>
+          <t>Ubl5</t>
         </is>
       </c>
       <c r="C206">
-        <v>4.403195032825928</v>
+        <v>-0.377251855112088</v>
       </c>
       <c r="D206">
-        <v>0.0176357401032901</v>
+        <v>0.01557323154944889</v>
       </c>
     </row>
     <row r="207">
@@ -3563,18 +3563,18 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Rpl41</t>
+          <t>Myl6</t>
         </is>
       </c>
       <c r="C211">
-        <v>-0.3731636487316165</v>
+        <v>-0.6309395807521748</v>
       </c>
       <c r="D211">
-        <v>0.0408380183998133</v>
+        <v>0.00244312273070854</v>
       </c>
     </row>
     <row r="212">
